--- a/CharacteristicsDependancy.xlsx
+++ b/CharacteristicsDependancy.xlsx
@@ -1231,7 +1231,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1854,6 +1853,2141 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>МО числа требований в сети</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>АМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.2614178210988333E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1435960784351163E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3196438129515219E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2944942366435347E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9520086113030403E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19563485679694892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3235842791520751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48107595563362526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67993149368105432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93925022991597784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2919421031457168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7987813629978671</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5750930663765228</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8026539760779512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC9C-4A36-8C59-9B2B5462DA00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$19:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.321010548415237E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1212956899816036E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2446209599189718E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1627280870116322E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3912311001416495E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17210930618139347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26686112102412207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37019450476037014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47977722309572413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60866576911371983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77427713495753459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97127954633595937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3105340074755358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7514150441798582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC9C-4A36-8C59-9B2B5462DA00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2062370576"/>
+        <c:axId val="2062373488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2062370576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2062373488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2062373488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2062370576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>МО длительности пребывания требований 1 класса в </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>S1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>АН</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.0001252531375918E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0006263284476364E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0012528138298641E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0062703536179065E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0125564539170627E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0251761324234428E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0378595142495858E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0506070829713728E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0634193270715734E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0762967400022332E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0892398202480497E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1022490713906692E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1153250021740151E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1284681265705926E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97B1-4AA4-BE42-E361AEA21424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.9074073681452791E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8749999890732173E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9056603686967546E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.888888890173508E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.910714286866999E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.893617021789842E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9264705881258604E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8717948716323713E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0019392384719978E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8863636362364917E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9019607841775075E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9090909089649295E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9226661930363504E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9284262989838699E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97B1-4AA4-BE42-E361AEA21424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1975990272"/>
+        <c:axId val="1975994016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1975990272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975994016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1975994016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975990272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>МО длительности пребывания требований 2 класса в </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>S1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>АМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.5000626265687959E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5003131642238195E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5006264069149321E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5031351768089528E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5062782269585313E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5125880662117205E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5189297571247933E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5253035414856855E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5317096635357863E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5381483700011166E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5446199101240253E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.551124535695335E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5576625010870076E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5642340632852963E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A1F-4EBC-9122-E5A3DA63B66D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.4999502990912026E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4999498593059366E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4999497978009777E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4999499190508799E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4999497998499369E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4999499604795028E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.499984922525705E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4999739286992698E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5000645673528857E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4999497072488871E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4999948544765424E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4999966968822205E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5002268569154158E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5000568324207265E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A1F-4EBC-9122-E5A3DA63B66D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1975992768"/>
+        <c:axId val="1975994848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1975992768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975994848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1975994848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975992768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>МО длительности пребывания требований 2 класса в </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>S2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>АМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.9992049596537034E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.012060261169196E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0282460776091793E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1625908831475621E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3436714596330218E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7576007191208539E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.258730320547605E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.877859479488761E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6622264409264367E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6881341558249442E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0867832418696116E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.109766502068123E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4156436200906655E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8856251524999575E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC01-4E82-A42C-F93AB9F8D978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.0010683786207105E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0075190945387755E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0153136238200314E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.084621967378051E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1800926969075995E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3965918781160856E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6952591336793666E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0858364748056567E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5810805807873074E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1857507055875668E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0854497158130117E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3303549236259756E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0658845029386916E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3885628893791336E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC01-4E82-A42C-F93AB9F8D978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2075712768"/>
+        <c:axId val="2075713184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2075712768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075713184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2075713184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075712768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>МО длительности пребывания требований 3 класса в </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>S2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>АМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.0072073687779693E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0200883937517957E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0363065980104741E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1709202275047403E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3523631462237483E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7671206781598149E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2692530399190215E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8896210763072183E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6755575560347301E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.70351811227075E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1049658951365914E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1119871448387613E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4184763229744667E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8893982884301096E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5316-4839-A33E-CF38AF37BEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>АМ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.0023036329150347E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0155655794220751E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0303532622898799E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.159204957861391E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3331370972883667E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6877690068627158E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1152466519599069E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6384865605173159E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2440004525966507E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.942397223286117E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9733208944972276E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2902859689569897E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1713178736239443E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5044283145923109E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5316-4839-A33E-CF38AF37BEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1975989856"/>
+        <c:axId val="1975991520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1975989856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975991520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1975991520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975989856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2014,6 +4148,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3563,6 +5897,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4200,6 +9114,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4468,8 +9532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CharacteristicsDependancy.xlsx
+++ b/CharacteristicsDependancy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Imitation_Model\magistrature\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -66,6 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9538,10 +9539,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="15" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="69.85546875" collapsed="true"/>
+    <col min="2" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="8" max="15" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9553,93 +9554,93 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.01</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.05</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>9</v>
-      </c>
-      <c r="O2">
-        <v>10</v>
+      <c r="F2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>5.0001252531375915E-8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2.5003131642238185E-7</v>
       </c>
-      <c r="D3">
-        <v>5.0012528138298648E-7</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>5.001252813829865E-7</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.5031351768089532E-6</v>
       </c>
-      <c r="F3">
-        <v>5.0125564539170627E-6</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>5.012556453917063E-6</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.0050352264846886E-5</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>1.5113578542748758E-5</v>
       </c>
-      <c r="I3">
-        <v>2.0202428331885491E-5</v>
-      </c>
-      <c r="J3">
+      <c r="I3" t="n">
+        <v>2.020242833188549E-5</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.5317096635357866E-5</v>
       </c>
-      <c r="K3">
-        <v>3.0457780440013399E-5</v>
-      </c>
-      <c r="L3">
-        <v>3.5624678741736348E-5</v>
-      </c>
-      <c r="M3">
+      <c r="K3" t="n">
+        <v>3.04577804400134E-5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.562467874173635E-5</v>
+      </c>
+      <c r="M3" t="n">
         <v>4.0817992571125354E-5</v>
       </c>
-      <c r="N3">
-        <v>4.6037925019566133E-5</v>
-      </c>
-      <c r="O3">
+      <c r="N3" t="n">
+        <v>4.603792501956613E-5</v>
+      </c>
+      <c r="O3" t="n">
         <v>5.128468126570593E-5</v>
       </c>
     </row>
@@ -9647,93 +9648,93 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>2.5000626265687957E-5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1.2501565821119098E-4</v>
       </c>
-      <c r="D4">
-        <v>2.5006264069149319E-4</v>
-      </c>
-      <c r="E4">
-        <v>1.2515675884044765E-3</v>
-      </c>
-      <c r="F4">
-        <v>2.5062782269585312E-3</v>
-      </c>
-      <c r="G4">
-        <v>5.0251761324234413E-3</v>
-      </c>
-      <c r="H4">
-        <v>7.55678927137438E-3</v>
-      </c>
-      <c r="I4">
-        <v>1.0101214165942743E-2</v>
-      </c>
-      <c r="J4">
-        <v>1.2658548317678932E-2</v>
-      </c>
-      <c r="K4">
-        <v>1.5228890220006699E-2</v>
-      </c>
-      <c r="L4">
-        <v>1.7812339370868176E-2</v>
-      </c>
-      <c r="M4">
-        <v>2.040899628556268E-2</v>
-      </c>
-      <c r="N4">
-        <v>2.3018962509783067E-2</v>
-      </c>
-      <c r="O4">
-        <v>2.5642340632852964E-2</v>
+      <c r="D4" t="n">
+        <v>2.500626406914932E-4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0012515675884044765</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.002506278226958531</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.005025176132423441</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00755678927137438</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.010101214165942743</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.012658548317678932</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.015228890220006699</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.017812339370868176</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02040899628556268</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.023018962509783067</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.025642340632852964</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>4.003204164613357E-4</v>
       </c>
-      <c r="C5">
-        <v>2.0080361607151824E-3</v>
-      </c>
-      <c r="D5">
-        <v>4.0322743236867881E-3</v>
-      </c>
-      <c r="E5">
-        <v>2.083376737015355E-2</v>
-      </c>
-      <c r="F5">
-        <v>4.348015131092655E-2</v>
-      </c>
-      <c r="G5">
-        <v>9.524716639679949E-2</v>
-      </c>
-      <c r="H5">
+      <c r="C5" t="n">
+        <v>0.0020080361607151824</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.004032274323686788</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02083376737015355</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04348015131092655</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.09524716639679949</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.15791967152604458</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.23534949355873</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.33344443336836815</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.46174933739884616</v>
       </c>
-      <c r="L5">
-        <v>0.63671090175780365</v>
-      </c>
-      <c r="M5">
-        <v>0.88870101485615294</v>
-      </c>
-      <c r="N5">
+      <c r="L5" t="n">
+        <v>0.6367109017578036</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8887010148561529</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.2753533373396806</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>1.8875107776524573</v>
       </c>
     </row>
@@ -9741,46 +9742,46 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>4.0072073687779693E-4</v>
-      </c>
-      <c r="C6">
-        <v>2.0100441968758979E-3</v>
-      </c>
-      <c r="D6">
-        <v>4.0363065980104744E-3</v>
-      </c>
-      <c r="E6">
-        <v>2.0854601137523701E-2</v>
-      </c>
-      <c r="F6">
-        <v>4.3523631462237485E-2</v>
-      </c>
-      <c r="G6">
-        <v>9.5342413563196296E-2</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="n">
+        <v>4.007207368777969E-4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002010044196875898</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.004036306598010474</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0208546011375237</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.043523631462237485</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0953424135631963</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.15807759119757064</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.23558484305228874</v>
       </c>
-      <c r="J6">
-        <v>0.33377787780173651</v>
-      </c>
-      <c r="K6">
+      <c r="J6" t="n">
+        <v>0.3337778778017365</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.462211086736245</v>
       </c>
-      <c r="L6">
-        <v>0.63734761265956141</v>
-      </c>
-      <c r="M6">
+      <c r="L6" t="n">
+        <v>0.6373476126595614</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.8895897158710091</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>1.2766286906770201</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>1.8893982884301097</v>
       </c>
     </row>
@@ -9788,140 +9789,140 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>8.2614178210988333E-4</v>
-      </c>
-      <c r="C7">
-        <v>4.1435960784351163E-3</v>
-      </c>
-      <c r="D7">
-        <v>8.3196438129515219E-3</v>
-      </c>
-      <c r="E7">
-        <v>4.2944942366435347E-2</v>
-      </c>
-      <c r="F7">
-        <v>8.9520086113030403E-2</v>
-      </c>
-      <c r="G7">
+      <c r="B7" t="n">
+        <v>8.261417821098833E-4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.004143596078435116</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.008319643812951522</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04294494236643535</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0895200861130304</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.19563485679694892</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.3235842791520751</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.48107595563362526</v>
       </c>
-      <c r="J7">
-        <v>0.67993149368105432</v>
-      </c>
-      <c r="K7">
-        <v>0.93925022991597784</v>
-      </c>
-      <c r="L7">
+      <c r="J7" t="n">
+        <v>0.6799314936810543</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9392502299159778</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.2919421031457168</v>
       </c>
-      <c r="M7">
-        <v>1.7987813629978671</v>
-      </c>
-      <c r="N7">
-        <v>2.5750930663765228</v>
-      </c>
-      <c r="O7">
-        <v>3.8026539760779512</v>
+      <c r="M7" t="n">
+        <v>1.798781362997867</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.575093066376523</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.802653976077951</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>5.0001252531375918E-6</v>
-      </c>
-      <c r="C8">
-        <v>5.0006263284476364E-6</v>
-      </c>
-      <c r="D8">
-        <v>5.0012528138298641E-6</v>
-      </c>
-      <c r="E8">
+      <c r="B8" t="n">
+        <v>5.000125253137592E-6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.000626328447636E-6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.001252813829864E-6</v>
+      </c>
+      <c r="E8" t="n">
         <v>5.0062703536179065E-6</v>
       </c>
-      <c r="F8">
-        <v>5.0125564539170627E-6</v>
-      </c>
-      <c r="G8">
-        <v>5.0251761324234428E-6</v>
-      </c>
-      <c r="H8">
-        <v>5.0378595142495858E-6</v>
-      </c>
-      <c r="I8">
-        <v>5.0506070829713728E-6</v>
-      </c>
-      <c r="J8">
+      <c r="F8" t="n">
+        <v>5.012556453917063E-6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.025176132423443E-6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.037859514249586E-6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.050607082971373E-6</v>
+      </c>
+      <c r="J8" t="n">
         <v>5.0634193270715734E-6</v>
       </c>
-      <c r="K8">
-        <v>5.0762967400022332E-6</v>
-      </c>
-      <c r="L8">
-        <v>5.0892398202480497E-6</v>
-      </c>
-      <c r="M8">
-        <v>5.1022490713906692E-6</v>
-      </c>
-      <c r="N8">
-        <v>5.1153250021740151E-6</v>
-      </c>
-      <c r="O8">
-        <v>5.1284681265705926E-6</v>
+      <c r="K8" t="n">
+        <v>5.076296740002233E-6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.08923982024805E-6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.102249071390669E-6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.115325002174015E-6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.128468126570593E-6</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>2.5000626265687959E-6</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>2.500062626568796E-6</v>
+      </c>
+      <c r="C9" t="n">
         <v>2.5003131642238195E-6</v>
       </c>
-      <c r="D9">
-        <v>2.5006264069149321E-6</v>
-      </c>
-      <c r="E9">
-        <v>2.5031351768089528E-6</v>
-      </c>
-      <c r="F9">
+      <c r="D9" t="n">
+        <v>2.500626406914932E-6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.503135176808953E-6</v>
+      </c>
+      <c r="F9" t="n">
         <v>2.5062782269585313E-6</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>2.5125880662117205E-6</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>2.5189297571247933E-6</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>2.5253035414856855E-6</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>2.5317096635357863E-6</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>2.5381483700011166E-6</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>2.5446199101240253E-6</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>2.551124535695335E-6</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>2.5576625010870076E-6</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>2.5642340632852963E-6</v>
       </c>
     </row>
@@ -9929,46 +9930,46 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>3.9992049596537034E-5</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>4.012060261169196E-5</v>
       </c>
-      <c r="D10">
-        <v>4.0282460776091793E-5</v>
-      </c>
-      <c r="E10">
-        <v>4.1625908831475621E-5</v>
-      </c>
-      <c r="F10">
-        <v>4.3436714596330218E-5</v>
-      </c>
-      <c r="G10">
-        <v>4.7576007191208539E-5</v>
-      </c>
-      <c r="H10">
+      <c r="D10" t="n">
+        <v>4.028246077609179E-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.162590883147562E-5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.343671459633022E-5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.757600719120854E-5</v>
+      </c>
+      <c r="H10" t="n">
         <v>5.258730320547605E-5</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>5.877859479488761E-5</v>
       </c>
-      <c r="J10">
-        <v>6.6622264409264367E-5</v>
-      </c>
-      <c r="K10">
-        <v>7.6881341558249442E-5</v>
-      </c>
-      <c r="L10">
-        <v>9.0867832418696116E-5</v>
-      </c>
-      <c r="M10">
+      <c r="J10" t="n">
+        <v>6.662226440926437E-5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.688134155824944E-5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.086783241869612E-5</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.109766502068123E-4</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>1.4156436200906655E-4</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>1.8856251524999575E-4</v>
       </c>
     </row>
@@ -9976,46 +9977,46 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>4.0072073687779693E-5</v>
-      </c>
-      <c r="C11">
-        <v>4.0200883937517957E-5</v>
-      </c>
-      <c r="D11">
-        <v>4.0363065980104741E-5</v>
-      </c>
-      <c r="E11">
-        <v>4.1709202275047403E-5</v>
-      </c>
-      <c r="F11">
-        <v>4.3523631462237483E-5</v>
-      </c>
-      <c r="G11">
-        <v>4.7671206781598149E-5</v>
-      </c>
-      <c r="H11">
+      <c r="B11" t="n">
+        <v>4.007207368777969E-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.020088393751796E-5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.036306598010474E-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.17092022750474E-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.352363146223748E-5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.767120678159815E-5</v>
+      </c>
+      <c r="H11" t="n">
         <v>5.2692530399190215E-5</v>
       </c>
-      <c r="I11">
-        <v>5.8896210763072183E-5</v>
-      </c>
-      <c r="J11">
-        <v>6.6755575560347301E-5</v>
-      </c>
-      <c r="K11">
+      <c r="I11" t="n">
+        <v>5.889621076307218E-5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.67555755603473E-5</v>
+      </c>
+      <c r="K11" t="n">
         <v>7.70351811227075E-5</v>
       </c>
-      <c r="L11">
-        <v>9.1049658951365914E-5</v>
-      </c>
-      <c r="M11">
+      <c r="L11" t="n">
+        <v>9.104965895136591E-5</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.1119871448387613E-4</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>1.4184763229744667E-4</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>1.8893982884301096E-4</v>
       </c>
     </row>
@@ -10029,470 +10030,470 @@
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>0.01</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0.05</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>0.1</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>0.5</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>7</v>
-      </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <v>9</v>
-      </c>
-      <c r="O14">
-        <v>10</v>
+      <c r="F14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15">
-        <v>5.3052999575544986E-8</v>
-      </c>
-      <c r="C15">
-        <v>1.951949995624916E-7</v>
-      </c>
-      <c r="D15">
-        <v>5.2051999908093786E-7</v>
-      </c>
-      <c r="E15">
-        <v>2.2022000005786563E-6</v>
-      </c>
-      <c r="F15">
-        <v>5.5055000012923301E-6</v>
-      </c>
-      <c r="G15">
-        <v>9.2092000009658681E-6</v>
-      </c>
-      <c r="H15">
-        <v>1.9924521809025874E-5</v>
-      </c>
-      <c r="I15">
-        <v>1.4910262996592826E-5</v>
-      </c>
-      <c r="J15">
-        <v>2.7598399087612867E-5</v>
-      </c>
-      <c r="K15">
-        <v>2.5825799999328007E-5</v>
-      </c>
-      <c r="L15">
-        <v>3.3947868473823244E-5</v>
-      </c>
-      <c r="M15">
-        <v>4.201578096264256E-5</v>
-      </c>
-      <c r="N15">
-        <v>4.9352899286835812E-5</v>
-      </c>
-      <c r="O15">
-        <v>5.8120863624438767E-5</v>
+      <c r="B15" t="n">
+        <v>5.6556498872497345E-8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.674773161782801E-7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.555549988624898E-7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.2601878947253045E-6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.554550001113616E-6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0833514174588E-5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.4586608453340892E-5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.9379661479295155E-5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.762040196541318E-5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.304836478613944E-5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.257386707759487E-5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.192500316105975E-5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.3701329761626446E-5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.1993187740245545E-5</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16">
-        <v>2.5198172541210623E-5</v>
-      </c>
-      <c r="C16">
-        <v>1.2471709358917736E-4</v>
-      </c>
-      <c r="D16">
-        <v>2.4926401445881914E-4</v>
-      </c>
-      <c r="E16">
-        <v>1.249247999088479E-3</v>
-      </c>
-      <c r="F16">
-        <v>2.4924399506511875E-3</v>
-      </c>
-      <c r="G16">
-        <v>5.0008959010232603E-3</v>
-      </c>
-      <c r="H16">
-        <v>7.5321246011189552E-3</v>
-      </c>
-      <c r="I16">
-        <v>1.0043033000941691E-2</v>
-      </c>
-      <c r="J16">
-        <v>1.24341828151737E-2</v>
-      </c>
-      <c r="K16">
-        <v>1.4927312399715908E-2</v>
-      </c>
-      <c r="L16">
-        <v>1.7530462949440797E-2</v>
-      </c>
-      <c r="M16">
-        <v>1.9844224399383107E-2</v>
-      </c>
-      <c r="N16">
-        <v>2.265277277700262E-2</v>
-      </c>
-      <c r="O16">
-        <v>2.4780897255975095E-2</v>
+      <c r="B16" t="n">
+        <v>2.4999725842610157E-5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.2475838277891475E-4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.5124349470765777E-4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001247098481548154</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0024882357481775343</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.005037182151318863</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.007550893351761163</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.010044514646708523</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.012503365877211145</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.015014466201357263</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.017625879008384415</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.02002428957703305</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.022559430785684714</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.02510142238492802</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17">
-        <v>4.0320435868606631E-4</v>
-      </c>
-      <c r="C17">
-        <v>1.9972173649536423E-3</v>
-      </c>
-      <c r="D17">
-        <v>3.9945042915228938E-3</v>
-      </c>
-      <c r="E17">
-        <v>2.0172772350438392E-2</v>
-      </c>
-      <c r="F17">
-        <v>4.0652412442878622E-2</v>
-      </c>
-      <c r="G17">
-        <v>8.3445187334836066E-2</v>
-      </c>
-      <c r="H17">
-        <v>0.12976538929197567</v>
-      </c>
-      <c r="I17">
-        <v>0.18046430452231271</v>
-      </c>
-      <c r="J17">
-        <v>0.23545454486439571</v>
-      </c>
-      <c r="K17">
-        <v>0.30097816728044913</v>
-      </c>
-      <c r="L17">
-        <v>0.3862457795207892</v>
-      </c>
-      <c r="M17">
-        <v>0.4921480222665538</v>
-      </c>
-      <c r="N17">
-        <v>0.67957641154432258</v>
-      </c>
-      <c r="O17">
-        <v>0.92836274226733606</v>
+      <c r="B17" t="n">
+        <v>4.0005947481685605E-4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0019977536037045413</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.004027532218113502</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.020141960634662767</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.04058818719195815</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.08430244594592441</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.13036088034427626</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1801725543096167</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.23665874565699635</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3026989387776815</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.39344057923141396</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5006499851577411</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6680580249704112</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.9886959964498585</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
-        <v>4.0364547061467115E-4</v>
-      </c>
-      <c r="C18">
-        <v>1.9991660364392211E-3</v>
-      </c>
-      <c r="D18">
-        <v>4.0003321339381779E-3</v>
-      </c>
-      <c r="E18">
-        <v>2.0203058320588871E-2</v>
-      </c>
-      <c r="F18">
-        <v>4.0761953107885399E-2</v>
-      </c>
-      <c r="G18">
-        <v>8.3654013745533162E-2</v>
-      </c>
-      <c r="H18">
-        <v>0.12954368260921842</v>
-      </c>
-      <c r="I18">
-        <v>0.17967225697411912</v>
-      </c>
-      <c r="J18">
-        <v>0.23186089701706714</v>
-      </c>
-      <c r="K18">
-        <v>0.29273446363355549</v>
-      </c>
-      <c r="L18">
-        <v>0.37046694461883078</v>
-      </c>
-      <c r="M18">
-        <v>0.45924528388905989</v>
-      </c>
-      <c r="N18">
-        <v>0.60825547025492377</v>
-      </c>
-      <c r="O18">
-        <v>0.79821328379292256</v>
+      <c r="B18" t="n">
+        <v>4.0054584081852E-4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.002000169942803087</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.004031929056932646</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.020185723410108665</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.040658152415147725</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.08447548133942741</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.13058307707402503</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1797027512355409</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.23377438689469135</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.29593229655823156</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.37588663794289573</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.467165685288567</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6013951825876653</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.8440608167711069</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
-        <v>8.321010548415237E-4</v>
-      </c>
-      <c r="C19">
-        <v>4.1212956899816036E-3</v>
-      </c>
-      <c r="D19">
-        <v>8.2446209599189718E-3</v>
-      </c>
-      <c r="E19">
-        <v>4.1627280870116322E-2</v>
-      </c>
-      <c r="F19">
-        <v>8.3912311001416495E-2</v>
-      </c>
-      <c r="G19">
-        <v>0.17210930618139347</v>
-      </c>
-      <c r="H19">
-        <v>0.26686112102412207</v>
-      </c>
-      <c r="I19">
-        <v>0.37019450476037014</v>
-      </c>
-      <c r="J19">
-        <v>0.47977722309572413</v>
-      </c>
-      <c r="K19">
-        <v>0.60866576911371983</v>
-      </c>
-      <c r="L19">
-        <v>0.77427713495753459</v>
-      </c>
-      <c r="M19">
-        <v>0.97127954633595937</v>
-      </c>
-      <c r="N19">
-        <v>1.3105340074755358</v>
-      </c>
-      <c r="O19">
-        <v>1.7514150441798582</v>
+      <c r="B19" t="n">
+        <v>8.256615979768587E-4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.004122949406602721</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.008311260324752668</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04157704271421431</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08373912990528451</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.17382594295084527</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2685094373785158</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.36993919985334545</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.48296411883086426</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6136787499020564</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.7869856700497717</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9878818850265021</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.2920563396735227</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.8579102287936338</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>4.9074073681452791E-6</v>
-      </c>
-      <c r="C20">
-        <v>4.8749999890732173E-6</v>
-      </c>
-      <c r="D20">
-        <v>4.9056603686967546E-6</v>
-      </c>
-      <c r="E20">
-        <v>4.888888890173508E-6</v>
-      </c>
-      <c r="F20">
-        <v>4.910714286866999E-6</v>
-      </c>
-      <c r="G20">
-        <v>4.893617021789842E-6</v>
-      </c>
-      <c r="H20">
-        <v>4.9264705881258604E-6</v>
-      </c>
-      <c r="I20">
-        <v>4.8717948716323713E-6</v>
-      </c>
-      <c r="J20">
-        <v>5.0019392384719978E-6</v>
-      </c>
-      <c r="K20">
-        <v>4.8863636362364917E-6</v>
-      </c>
-      <c r="L20">
-        <v>4.9019607841775075E-6</v>
-      </c>
-      <c r="M20">
-        <v>4.9090909089649295E-6</v>
-      </c>
-      <c r="N20">
-        <v>4.9226661930363504E-6</v>
-      </c>
-      <c r="O20">
-        <v>4.9284262989838699E-6</v>
+      <c r="B20" t="n">
+        <v>4.956140252072257E-6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.953703745903768E-6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.955357132710948E-6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.951371632701932E-6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.945652175122286E-6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.954545455655541E-6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.949494950271118E-6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.969738504792037E-6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.955752212642865E-6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.987718640400393E-6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.965524137212284E-6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.963575216253181E-6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.999321147453834E-6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.0088924051931175E-6</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21">
-        <v>2.4999502990912026E-6</v>
-      </c>
-      <c r="C21">
-        <v>2.4999498593059366E-6</v>
-      </c>
-      <c r="D21">
-        <v>2.4999497978009777E-6</v>
-      </c>
-      <c r="E21">
-        <v>2.4999499190508799E-6</v>
-      </c>
-      <c r="F21">
-        <v>2.4999497998499369E-6</v>
-      </c>
-      <c r="G21">
-        <v>2.4999499604795028E-6</v>
-      </c>
-      <c r="H21">
-        <v>2.499984922525705E-6</v>
-      </c>
-      <c r="I21">
-        <v>2.4999739286992698E-6</v>
-      </c>
-      <c r="J21">
-        <v>2.5000645673528857E-6</v>
-      </c>
-      <c r="K21">
-        <v>2.4999497072488871E-6</v>
-      </c>
-      <c r="L21">
-        <v>2.4999948544765424E-6</v>
-      </c>
-      <c r="M21">
-        <v>2.4999966968822205E-6</v>
-      </c>
-      <c r="N21">
-        <v>2.5002268569154158E-6</v>
-      </c>
-      <c r="O21">
-        <v>2.5000568324207265E-6</v>
+      <c r="B21" t="n">
+        <v>2.4999750842361E-6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.5000192388520244E-6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.4999751210726543E-6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.4999908255903056E-6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.4999748551049022E-6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.499986433765669E-6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.5000321598524756E-6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.50001502382784E-6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.5000936296861383E-6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.500077559388507E-6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.500023614715353E-6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.5001103648553105E-6</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.5000258095153837E-6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.5000689124902164E-6</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22">
-        <v>4.0010683786207105E-5</v>
-      </c>
-      <c r="C22">
-        <v>4.0075190945387755E-5</v>
-      </c>
-      <c r="D22">
-        <v>4.0153136238200314E-5</v>
-      </c>
-      <c r="E22">
-        <v>4.084621967378051E-5</v>
-      </c>
-      <c r="F22">
-        <v>4.1800926969075995E-5</v>
-      </c>
-      <c r="G22">
-        <v>4.3965918781160856E-5</v>
-      </c>
-      <c r="H22">
-        <v>4.6952591336793666E-5</v>
-      </c>
-      <c r="I22">
-        <v>5.0858364748056567E-5</v>
-      </c>
-      <c r="J22">
-        <v>5.5810805807873074E-5</v>
-      </c>
-      <c r="K22">
-        <v>6.1857507055875668E-5</v>
-      </c>
-      <c r="L22">
-        <v>7.0854497158130117E-5</v>
-      </c>
-      <c r="M22">
-        <v>8.3303549236259756E-5</v>
-      </c>
-      <c r="N22">
-        <v>1.0658845029386916E-4</v>
-      </c>
-      <c r="O22">
-        <v>1.3885628893791336E-4</v>
+      <c r="B22" t="n">
+        <v>4.001697752754841E-5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.007766163125593E-5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.016579442817706E-5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.086019189546383E-5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.181745487140516E-5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.4191956210853605E-5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.714525479574751E-5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.0784971637748504E-5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.56931222568449E-5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.195764167823808E-5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.213612246736447E-5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.452216335897243E-5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.0502163854202326E-4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.4753427753553324E-4</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23">
-        <v>4.0023036329150347E-5</v>
-      </c>
-      <c r="C23">
-        <v>4.0155655794220751E-5</v>
-      </c>
-      <c r="D23">
-        <v>4.0303532622898799E-5</v>
-      </c>
-      <c r="E23">
-        <v>4.159204957861391E-5</v>
-      </c>
-      <c r="F23">
-        <v>4.3331370972883667E-5</v>
-      </c>
-      <c r="G23">
-        <v>4.6877690068627158E-5</v>
-      </c>
-      <c r="H23">
-        <v>5.1152466519599069E-5</v>
-      </c>
-      <c r="I23">
-        <v>5.6384865605173159E-5</v>
-      </c>
-      <c r="J23">
-        <v>6.2440004525966507E-5</v>
-      </c>
-      <c r="K23">
-        <v>6.942397223286117E-5</v>
-      </c>
-      <c r="L23">
-        <v>7.9733208944972276E-5</v>
-      </c>
-      <c r="M23">
-        <v>9.2902859689569897E-5</v>
-      </c>
-      <c r="N23">
-        <v>1.1713178736239443E-4</v>
-      </c>
-      <c r="O23">
-        <v>1.5044283145923109E-4</v>
+      <c r="B23" t="n">
+        <v>4.003638573237961E-5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.015281298314365E-5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.0327442727025513E-5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.1659702630960286E-5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.32629342842269E-5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.713154858279659E-5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.151701006969011E-5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.635003786277244E-5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.247717934185371E-5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.974274236602507E-5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.099998790072215E-5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9.431726597934289E-5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.1564607043085904E-4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.590883599449693E-4</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/CharacteristicsDependancy.xlsx
+++ b/CharacteristicsDependancy.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Imitation_Model\magistrature\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="7185"/>
   </bookViews>
@@ -16,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -65,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,17 +96,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -119,15 +129,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,7 +157,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -196,26 +210,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -293,7 +287,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-19E9-451C-86D0-713226C87C90}"/>
             </c:ext>
@@ -324,52 +318,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.3052999575544986E-8</c:v>
+                  <c:v>5.055049888499384E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.951949995624916E-7</c:v>
+                  <c:v>2.5275250198559155E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2051999908093786E-7</c:v>
+                  <c:v>5.2552499894030867E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2022000005786563E-6</c:v>
+                  <c:v>2.4274249975574694E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5055000012923301E-6</c:v>
+                  <c:v>5.0050000011299025E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2092000009658681E-6</c:v>
+                  <c:v>1.0104561073004199E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9924521809025874E-5</c:v>
+                  <c:v>1.4154237666283881E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4910262996592826E-5</c:v>
+                  <c:v>2.3540520268883593E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7598399087612867E-5</c:v>
+                  <c:v>2.1986968534882536E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5825799999328007E-5</c:v>
+                  <c:v>2.6397066036996172E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3947868473823244E-5</c:v>
+                  <c:v>3.7234801652510124E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.201578096264256E-5</c:v>
+                  <c:v>4.8169881637098382E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9352899286835812E-5</c:v>
+                  <c:v>4.8657900478001957E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8120863624438767E-5</c:v>
+                  <c:v>5.0605781433388735E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-19E9-451C-86D0-713226C87C90}"/>
             </c:ext>
@@ -383,12 +377,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1944013951"/>
-        <c:axId val="1938815679"/>
+        <c:axId val="85944960"/>
+        <c:axId val="85950848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1944013951"/>
+        <c:axId val="85944960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +425,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1938815679"/>
+        <c:crossAx val="85950848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -438,7 +433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1938815679"/>
+        <c:axId val="85950848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +484,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1944013951"/>
+        <c:crossAx val="85944960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -571,7 +566,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -624,26 +619,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -721,7 +696,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF37-49A2-8BDF-4D506475B5CA}"/>
             </c:ext>
@@ -752,52 +727,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.5198172541210623E-5</c:v>
+                  <c:v>2.5146372331511488E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2471709358917736E-4</c:v>
+                  <c:v>1.2519882278914414E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4926401445881914E-4</c:v>
+                  <c:v>2.4950926217452772E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.249247999088479E-3</c:v>
+                  <c:v>1.2540527979586916E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4924399506511875E-3</c:v>
+                  <c:v>2.500948448176893E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0008959010232603E-3</c:v>
+                  <c:v>4.999044051306259E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5321246011189552E-3</c:v>
+                  <c:v>7.4759685017475831E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0043033000941691E-2</c:v>
+                  <c:v>9.981051026116081E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.24341828151737E-2</c:v>
+                  <c:v>1.241307930974276E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4927312399715908E-2</c:v>
+                  <c:v>1.4917920180985145E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7530462949440797E-2</c:v>
+                  <c:v>1.7592828770171234E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9844224399383107E-2</c:v>
+                  <c:v>2.00191561446912E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.265277277700262E-2</c:v>
+                  <c:v>2.2528095645113891E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4780897255975095E-2</c:v>
+                  <c:v>2.5004698670798513E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF37-49A2-8BDF-4D506475B5CA}"/>
             </c:ext>
@@ -811,12 +786,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2041999551"/>
-        <c:axId val="2042000799"/>
+        <c:axId val="98981760"/>
+        <c:axId val="98983296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2041999551"/>
+        <c:axId val="98981760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,7 +834,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2042000799"/>
+        <c:crossAx val="98983296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -866,7 +842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2042000799"/>
+        <c:axId val="98983296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +893,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041999551"/>
+        <c:crossAx val="98981760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -999,7 +975,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1052,26 +1028,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1149,7 +1105,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A122-4E45-BA31-05C0D91B3BA6}"/>
             </c:ext>
@@ -1180,52 +1136,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0320435868606631E-4</c:v>
+                  <c:v>4.0240060746434063E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9972173649536423E-3</c:v>
+                  <c:v>2.0049662717940087E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9945042915228938E-3</c:v>
+                  <c:v>3.9989030279538535E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0172772350438392E-2</c:v>
+                  <c:v>2.0251985162569892E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0652412442878622E-2</c:v>
+                  <c:v>4.078256456054262E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3445187334836066E-2</c:v>
+                  <c:v>8.3530980395682478E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12976538929197567</c:v>
+                  <c:v>0.12856699073613845</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18046430452231271</c:v>
+                  <c:v>0.17878199817288648</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23545454486439571</c:v>
+                  <c:v>0.23337487984798636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30097816728044913</c:v>
+                  <c:v>0.30012422445385051</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3862457795207892</c:v>
+                  <c:v>0.39010079627631128</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4921480222665538</c:v>
+                  <c:v>0.49882483882835771</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67957641154432258</c:v>
+                  <c:v>0.6717939473618797</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92836274226733606</c:v>
+                  <c:v>0.96912283624427087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A122-4E45-BA31-05C0D91B3BA6}"/>
             </c:ext>
@@ -1239,12 +1195,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1945563503"/>
-        <c:axId val="1945564335"/>
+        <c:axId val="99005568"/>
+        <c:axId val="99007104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1945563503"/>
+        <c:axId val="99005568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1243,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1945564335"/>
+        <c:crossAx val="99007104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1294,7 +1251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1945564335"/>
+        <c:axId val="99007104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1302,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1945563503"/>
+        <c:crossAx val="99005568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1427,7 +1384,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1480,26 +1437,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1577,7 +1514,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4DC8-46F1-96AD-4136781CA271}"/>
             </c:ext>
@@ -1608,52 +1545,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0364547061467115E-4</c:v>
+                  <c:v>4.0280395689913033E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9991660364392211E-3</c:v>
+                  <c:v>2.0070128856621789E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0003321339381779E-3</c:v>
+                  <c:v>4.0023433828666778E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0203058320588871E-2</c:v>
+                  <c:v>2.029219346947702E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0761953107885399E-2</c:v>
+                  <c:v>4.0843918710783203E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3654013745533162E-2</c:v>
+                  <c:v>8.3834791966542574E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12954368260921842</c:v>
+                  <c:v>0.12866537912900561</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17967225697411912</c:v>
+                  <c:v>0.17846913756618224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23186089701706714</c:v>
+                  <c:v>0.22992966445804944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29273446363355549</c:v>
+                  <c:v>0.29323436026936339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37046694461883078</c:v>
+                  <c:v>0.37235032954549385</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45924528388905989</c:v>
+                  <c:v>0.46422241711268031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60825547025492377</c:v>
+                  <c:v>0.60312896908065161</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79821328379292256</c:v>
+                  <c:v>0.82977921639565511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4DC8-46F1-96AD-4136781CA271}"/>
             </c:ext>
@@ -1667,12 +1604,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1945560175"/>
-        <c:axId val="1945564751"/>
+        <c:axId val="99366784"/>
+        <c:axId val="99368320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1945560175"/>
+        <c:axId val="99366784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1652,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1945564751"/>
+        <c:crossAx val="99368320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,7 +1660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1945564751"/>
+        <c:axId val="99368320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1711,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1945560175"/>
+        <c:crossAx val="99366784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1855,7 +1793,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1903,26 +1841,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2000,7 +1918,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DC9C-4A36-8C59-9B2B5462DA00}"/>
             </c:ext>
@@ -2031,52 +1949,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>8.321010548415237E-4</c:v>
+                  <c:v>8.3040148719386742E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1212956899816036E-3</c:v>
+                  <c:v>4.1374307327473169E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2446209599189718E-3</c:v>
+                  <c:v>8.2512811979939989E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1627280870116322E-2</c:v>
+                  <c:v>4.1800658855003156E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3912311001416495E-2</c:v>
+                  <c:v>8.413243671950385E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17210930618139347</c:v>
+                  <c:v>0.17237492097460433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26686112102412207</c:v>
+                  <c:v>0.26472249260455794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37019450476037014</c:v>
+                  <c:v>0.36725572728545364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47977722309572413</c:v>
+                  <c:v>0.47573961058431347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60866576911371983</c:v>
+                  <c:v>0.60830290197023607</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77427713495753459</c:v>
+                  <c:v>0.7800811893936288</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97127954633595937</c:v>
+                  <c:v>0.98311458196736634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3105340074755358</c:v>
+                  <c:v>1.2974996699881234</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7514150441798582</c:v>
+                  <c:v>1.8239573570921577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DC9C-4A36-8C59-9B2B5462DA00}"/>
             </c:ext>
@@ -2090,12 +2008,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2062370576"/>
-        <c:axId val="2062373488"/>
+        <c:axId val="99415552"/>
+        <c:axId val="99417088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2062370576"/>
+        <c:axId val="99415552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,7 +2056,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062373488"/>
+        <c:crossAx val="99417088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2145,7 +2064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2062373488"/>
+        <c:axId val="99417088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2115,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062370576"/>
+        <c:crossAx val="99415552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2278,7 +2197,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2331,26 +2250,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2362,7 +2261,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>АН</c:v>
+            <c:v>АМ</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2428,7 +2327,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-97B1-4AA4-BE42-E361AEA21424}"/>
             </c:ext>
@@ -2459,52 +2358,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.9074073681452791E-6</c:v>
+                  <c:v>4.9509802829517389E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8749999890732173E-6</c:v>
+                  <c:v>4.9509804310511366E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9056603686967546E-6</c:v>
+                  <c:v>4.9528301786921439E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.888888890173508E-6</c:v>
+                  <c:v>4.9489795868569583E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.910714286866999E-6</c:v>
+                  <c:v>4.950495050622548E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.893617021789842E-6</c:v>
+                  <c:v>4.9509803931751156E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9264705881258604E-6</c:v>
+                  <c:v>4.9484536090434967E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8717948716323713E-6</c:v>
+                  <c:v>4.9747781785362418E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0019392384719978E-6</c:v>
+                  <c:v>5.0116584585591007E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8863636362364917E-6</c:v>
+                  <c:v>4.9582726873752629E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9019607841775075E-6</c:v>
+                  <c:v>4.9541685898022243E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9090909089649295E-6</c:v>
+                  <c:v>4.9956286406588135E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9226661930363504E-6</c:v>
+                  <c:v>4.9965018616688513E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9284262989838699E-6</c:v>
+                  <c:v>4.9969855289089898E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-97B1-4AA4-BE42-E361AEA21424}"/>
             </c:ext>
@@ -2518,12 +2417,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1975990272"/>
-        <c:axId val="1975994016"/>
+        <c:axId val="99787520"/>
+        <c:axId val="99789056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1975990272"/>
+        <c:axId val="99787520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2465,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975994016"/>
+        <c:crossAx val="99789056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2573,7 +2473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1975994016"/>
+        <c:axId val="99789056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2524,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975990272"/>
+        <c:crossAx val="99787520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2706,7 +2606,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2759,26 +2659,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2856,7 +2736,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4A1F-4EBC-9122-E5A3DA63B66D}"/>
             </c:ext>
@@ -2887,52 +2767,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.4999502990912026E-6</c:v>
+                  <c:v>2.4999752284329216E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4999498593059366E-6</c:v>
+                  <c:v>2.4999749958045981E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4999497978009777E-6</c:v>
+                  <c:v>2.4999749478196213E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4999499190508799E-6</c:v>
+                  <c:v>2.4999750520543396E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4999497998499369E-6</c:v>
+                  <c:v>2.4999749829182945E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4999499604795028E-6</c:v>
+                  <c:v>2.5000222602217147E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.499984922525705E-6</c:v>
+                  <c:v>2.5000385278692137E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4999739286992698E-6</c:v>
+                  <c:v>2.500004263605632E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5000645673528857E-6</c:v>
+                  <c:v>2.5001189443756275E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4999497072488871E-6</c:v>
+                  <c:v>2.5000705714470675E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4999948544765424E-6</c:v>
+                  <c:v>2.4999889912953436E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4999966968822205E-6</c:v>
+                  <c:v>2.5000902220240315E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5002268569154158E-6</c:v>
+                  <c:v>2.5002259692450114E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5000568324207265E-6</c:v>
+                  <c:v>2.5000805855673704E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4A1F-4EBC-9122-E5A3DA63B66D}"/>
             </c:ext>
@@ -2946,12 +2826,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1975992768"/>
-        <c:axId val="1975994848"/>
+        <c:axId val="100927360"/>
+        <c:axId val="100928896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1975992768"/>
+        <c:axId val="100927360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +2874,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975994848"/>
+        <c:crossAx val="100928896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3001,7 +2882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1975994848"/>
+        <c:axId val="100928896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +2933,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975992768"/>
+        <c:crossAx val="100927360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3134,7 +3015,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3187,26 +3068,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3284,7 +3145,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CC01-4E82-A42C-F93AB9F8D978}"/>
             </c:ext>
@@ -3315,52 +3176,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0010683786207105E-5</c:v>
+                  <c:v>4.0017457678376392E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0075190945387755E-5</c:v>
+                  <c:v>4.008369221654161E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0153136238200314E-5</c:v>
+                  <c:v>4.0156904357959443E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.084621967378051E-5</c:v>
+                  <c:v>4.0852832443472262E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1800926969075995E-5</c:v>
+                  <c:v>4.1809458265669958E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3965918781160856E-5</c:v>
+                  <c:v>4.4065252957344062E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6952591336793666E-5</c:v>
+                  <c:v>4.6820867588231518E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0858364748056567E-5</c:v>
+                  <c:v>5.0627461723318868E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5810805807873074E-5</c:v>
+                  <c:v>5.5173630658832748E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1857507055875668E-5</c:v>
+                  <c:v>6.1591872283150496E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0854497158130117E-5</c:v>
+                  <c:v>7.143695697524598E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3303549236259756E-5</c:v>
+                  <c:v>8.4112218347656806E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0658845029386916E-4</c:v>
+                  <c:v>1.0577396554133889E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3885628893791336E-4</c:v>
+                  <c:v>1.4484804514320858E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CC01-4E82-A42C-F93AB9F8D978}"/>
             </c:ext>
@@ -3374,12 +3235,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075712768"/>
-        <c:axId val="2075713184"/>
+        <c:axId val="100963456"/>
+        <c:axId val="100964992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075712768"/>
+        <c:axId val="100963456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3283,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075713184"/>
+        <c:crossAx val="100964992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3429,7 +3291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075713184"/>
+        <c:axId val="100964992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3342,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075712768"/>
+        <c:crossAx val="100963456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,7 +3424,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3615,26 +3477,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3712,7 +3554,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5316-4839-A33E-CF38AF37BEBA}"/>
             </c:ext>
@@ -3743,52 +3585,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0023036329150347E-5</c:v>
+                  <c:v>4.0028705396666646E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0155655794220751E-5</c:v>
+                  <c:v>4.015743726158511E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0303532622898799E-5</c:v>
+                  <c:v>4.0288397802108844E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.159204957861391E-5</c:v>
+                  <c:v>4.1656300029478152E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3331370972883667E-5</c:v>
+                  <c:v>4.3255284577197783E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6877690068627158E-5</c:v>
+                  <c:v>4.7083107891783774E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1152466519599069E-5</c:v>
+                  <c:v>5.109096694878073E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6384865605173159E-5</c:v>
+                  <c:v>5.6224655892972187E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2440004525966507E-5</c:v>
+                  <c:v>6.1644229753759889E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.942397223286117E-5</c:v>
+                  <c:v>6.9514568180009551E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9733208944972276E-5</c:v>
+                  <c:v>8.0130625358370631E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2902859689569897E-5</c:v>
+                  <c:v>9.3659800316996328E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1713178736239443E-4</c:v>
+                  <c:v>1.1638946830480306E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5044283145923109E-4</c:v>
+                  <c:v>1.5639712694719152E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5316-4839-A33E-CF38AF37BEBA}"/>
             </c:ext>
@@ -3802,12 +3644,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1975989856"/>
-        <c:axId val="1975991520"/>
+        <c:axId val="101396864"/>
+        <c:axId val="101398400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1975989856"/>
+        <c:axId val="101396864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,7 +3692,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975991520"/>
+        <c:crossAx val="101398400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3857,7 +3700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1975991520"/>
+        <c:axId val="101398400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +3751,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975989856"/>
+        <c:crossAx val="101396864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9523,7 +9366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9531,10 +9374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9550,8 +9393,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="n">
@@ -9597,7 +9440,7 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9644,7 +9487,7 @@
         <v>5.128468126570593E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9691,7 +9534,7 @@
         <v>0.025642340632852964</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -9738,7 +9581,7 @@
         <v>1.8875107776524573</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -9785,7 +9628,7 @@
         <v>1.8893982884301097</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -9832,7 +9675,7 @@
         <v>3.802653976077951</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -9879,7 +9722,7 @@
         <v>5.128468126570593E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -9926,7 +9769,7 @@
         <v>2.5642340632852963E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -9973,7 +9816,7 @@
         <v>1.8856251524999575E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -10020,14 +9863,13 @@
         <v>1.8893982884301096E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="n">
@@ -10073,430 +9915,429 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>5.6556498872497345E-8</v>
+        <v>4.9048999060908056E-8</v>
       </c>
       <c r="C15" t="n">
-        <v>2.674773161782801E-7</v>
+        <v>2.8528500258625804E-7</v>
       </c>
       <c r="D15" t="n">
-        <v>5.555549988624898E-7</v>
+        <v>4.95494998871876E-7</v>
       </c>
       <c r="E15" t="n">
-        <v>2.2601878947253045E-6</v>
+        <v>2.802799997264314E-6</v>
       </c>
       <c r="F15" t="n">
-        <v>4.554550001113616E-6</v>
+        <v>5.205200001356259E-6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0833514174588E-5</v>
+        <v>1.0910900002146794E-5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.4586608453340892E-5</v>
+        <v>1.76760240376452E-5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9379661479295155E-5</v>
+        <v>1.8059970228732063E-5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.762040196541318E-5</v>
+        <v>2.2635693099275753E-5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.304836478613944E-5</v>
+        <v>2.769224102906687E-5</v>
       </c>
       <c r="L15" t="n">
-        <v>3.257386707759487E-5</v>
+        <v>3.4441718454659587E-5</v>
       </c>
       <c r="M15" t="n">
-        <v>4.192500316105975E-5</v>
+        <v>4.361223266908054E-5</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3701329761626446E-5</v>
+        <v>3.765778090241635E-5</v>
       </c>
       <c r="O15" t="n">
-        <v>5.1993187740245545E-5</v>
+        <v>4.31670638781335E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>2.4999725842610157E-5</v>
+        <v>2.508180784096179E-5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.2475838277891475E-4</v>
+        <v>1.246883128053279E-4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.5124349470765777E-4</v>
+        <v>2.4729454966766437E-4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001247098481548154</v>
+        <v>0.0012457695229734199</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0024882357481775343</v>
+        <v>0.00249911139851552</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005037182151318863</v>
+        <v>0.0049968418513071326</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007550893351761163</v>
+        <v>0.007491984088440742</v>
       </c>
       <c r="I16" t="n">
-        <v>0.010044514646708523</v>
+        <v>0.009992935393649597</v>
       </c>
       <c r="J16" t="n">
-        <v>0.012503365877211145</v>
+        <v>0.012500285083555331</v>
       </c>
       <c r="K16" t="n">
-        <v>0.015014466201357263</v>
+        <v>0.014965159970619887</v>
       </c>
       <c r="L16" t="n">
-        <v>0.017625879008384415</v>
+        <v>0.01747376925585505</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02002428957703305</v>
+        <v>0.02006120870660311</v>
       </c>
       <c r="N16" t="n">
-        <v>0.022559430785684714</v>
+        <v>0.02250022141212081</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02510142238492802</v>
+        <v>0.024953550056333713</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>4.0005947481685605E-4</v>
+        <v>4.01375772292127E-4</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0019977536037045413</v>
+        <v>0.001996862863588687</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004027532218113502</v>
+        <v>0.0039630990359579</v>
       </c>
       <c r="E17" t="n">
-        <v>0.020141960634662767</v>
+        <v>0.020113739292667552</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04058818719195815</v>
+        <v>0.040781348728509144</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08430244594592441</v>
+        <v>0.08361847446021667</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13036088034427626</v>
+        <v>0.12907653955521894</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1801725543096167</v>
+        <v>0.17907405190049056</v>
       </c>
       <c r="J17" t="n">
-        <v>0.23665874565699635</v>
+        <v>0.23681388735035672</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3026989387776815</v>
+        <v>0.30268608175681105</v>
       </c>
       <c r="L17" t="n">
-        <v>0.39344057923141396</v>
+        <v>0.3851286413763314</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5006499851577411</v>
+        <v>0.5036017395720768</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6680580249704112</v>
+        <v>0.6694557161769213</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9886959964498585</v>
+        <v>0.9576104986848707</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>4.0054584081852E-4</v>
+        <v>4.017691834766008E-4</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002000169942803087</v>
+        <v>0.001999266148260904</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004031929056932646</v>
+        <v>0.003967090780054146</v>
       </c>
       <c r="E18" t="n">
-        <v>0.020185723410108665</v>
+        <v>0.02016204557032654</v>
       </c>
       <c r="F18" t="n">
-        <v>0.040658152415147725</v>
+        <v>0.04091067041927342</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08447548133942741</v>
+        <v>0.08386252144095495</v>
       </c>
       <c r="H18" t="n">
-        <v>0.13058307707402503</v>
+        <v>0.12905189121937882</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1797027512355409</v>
+        <v>0.1783473928176858</v>
       </c>
       <c r="J18" t="n">
-        <v>0.23377438689469135</v>
+        <v>0.23279844723496898</v>
       </c>
       <c r="K18" t="n">
-        <v>0.29593229655823156</v>
+        <v>0.2950399704721633</v>
       </c>
       <c r="L18" t="n">
-        <v>0.37588663794289573</v>
+        <v>0.3681403285310303</v>
       </c>
       <c r="M18" t="n">
-        <v>0.467165685288567</v>
+        <v>0.46820242973148973</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6013951825876653</v>
+        <v>0.6017104619526283</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8440608167711069</v>
+        <v>0.8212109912933556</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>8.256615979768587E-4</v>
+        <v>8.282758126087505E-4</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004122949406602721</v>
+        <v>0.004121102609657505</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008311260324752668</v>
+        <v>0.008177979860678582</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04157704271421431</v>
+        <v>0.041524357185964776</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08373912990528451</v>
+        <v>0.08419633574629944</v>
       </c>
       <c r="G19" t="n">
-        <v>0.17382594295084527</v>
+        <v>0.1724887486524809</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2685094373785158</v>
+        <v>0.26563809088707613</v>
       </c>
       <c r="I19" t="n">
-        <v>0.36993919985334545</v>
+        <v>0.36743244008205467</v>
       </c>
       <c r="J19" t="n">
-        <v>0.48296411883086426</v>
+        <v>0.4821352553619803</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6136787499020564</v>
+        <v>0.6127189044406233</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7869856700497717</v>
+        <v>0.7707771808816715</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9878818850265021</v>
+        <v>0.9919089902428387</v>
       </c>
       <c r="N19" t="n">
-        <v>1.2920563396735227</v>
+        <v>1.2937040573225729</v>
       </c>
       <c r="O19" t="n">
-        <v>1.8579102287936338</v>
+        <v>1.803818207098438</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>4.956140252072257E-6</v>
+        <v>4.949494854731941E-6</v>
       </c>
       <c r="C20" t="n">
-        <v>4.953703745903768E-6</v>
+        <v>4.956521784063902E-6</v>
       </c>
       <c r="D20" t="n">
-        <v>4.955357132710948E-6</v>
+        <v>4.949999988730031E-6</v>
       </c>
       <c r="E20" t="n">
-        <v>4.951371632701932E-6</v>
+        <v>4.955752207552296E-6</v>
       </c>
       <c r="F20" t="n">
-        <v>4.945652175122286E-6</v>
+        <v>4.9664624364194316E-6</v>
       </c>
       <c r="G20" t="n">
-        <v>4.954545455655541E-6</v>
+        <v>4.954545455520295E-6</v>
       </c>
       <c r="H20" t="n">
-        <v>4.949494950271118E-6</v>
+        <v>4.964870337894308E-6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.969738504792037E-6</v>
+        <v>4.960333106135901E-6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.955752212642865E-6</v>
+        <v>4.956405175492619E-6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.987718640400393E-6</v>
+        <v>4.975134505897649E-6</v>
       </c>
       <c r="L20" t="n">
-        <v>4.965524137212284E-6</v>
+        <v>4.984150042558318E-6</v>
       </c>
       <c r="M20" t="n">
-        <v>4.963575216253181E-6</v>
+        <v>5.018532876449359E-6</v>
       </c>
       <c r="N20" t="n">
-        <v>4.999321147453834E-6</v>
+        <v>4.945538761435862E-6</v>
       </c>
       <c r="O20" t="n">
-        <v>5.0088924051931175E-6</v>
+        <v>4.985714887164939E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>2.4999750842361E-6</v>
+        <v>2.499975165609602E-6</v>
       </c>
       <c r="C21" t="n">
-        <v>2.5000192388520244E-6</v>
+        <v>2.4999748937557025E-6</v>
       </c>
       <c r="D21" t="n">
-        <v>2.4999751210726543E-6</v>
+        <v>2.4999747233910028E-6</v>
       </c>
       <c r="E21" t="n">
-        <v>2.4999908255903056E-6</v>
+        <v>2.4999748862035987E-6</v>
       </c>
       <c r="F21" t="n">
-        <v>2.4999748551049022E-6</v>
+        <v>2.4999749646274405E-6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.499986433765669E-6</v>
+        <v>2.499974960088256E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5000321598524756E-6</v>
+        <v>2.5000111453204574E-6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.50001502382784E-6</v>
+        <v>2.499985458012544E-6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5000936296861383E-6</v>
+        <v>2.500047662200179E-6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.500077559388507E-6</v>
+        <v>2.500035881165442E-6</v>
       </c>
       <c r="L21" t="n">
-        <v>2.500023614715353E-6</v>
+        <v>2.5000404307331774E-6</v>
       </c>
       <c r="M21" t="n">
-        <v>2.5001103648553105E-6</v>
+        <v>2.500070935687037E-6</v>
       </c>
       <c r="N21" t="n">
-        <v>2.5000258095153837E-6</v>
+        <v>2.5000550714419007E-6</v>
       </c>
       <c r="O21" t="n">
-        <v>2.5000689124902164E-6</v>
+        <v>2.500087642112427E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>4.001697752754841E-5</v>
+        <v>4.0016344215596806E-5</v>
       </c>
       <c r="C22" t="n">
-        <v>4.007766163125593E-5</v>
+        <v>4.008042902772316E-5</v>
       </c>
       <c r="D22" t="n">
-        <v>4.016579442817706E-5</v>
+        <v>4.015254670999158E-5</v>
       </c>
       <c r="E22" t="n">
-        <v>4.086019189546383E-5</v>
+        <v>4.084948773161752E-5</v>
       </c>
       <c r="F22" t="n">
-        <v>4.181745487140516E-5</v>
+        <v>4.1821072855603256E-5</v>
       </c>
       <c r="G22" t="n">
-        <v>4.4191956210853605E-5</v>
+        <v>4.413891506602313E-5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.714525479574751E-5</v>
+        <v>4.699489373597177E-5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.0784971637748504E-5</v>
+        <v>5.0658782731821844E-5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.56931222568449E-5</v>
+        <v>5.581428292313667E-5</v>
       </c>
       <c r="K22" t="n">
-        <v>6.195764167823808E-5</v>
+        <v>6.211824940786532E-5</v>
       </c>
       <c r="L22" t="n">
-        <v>7.213612246736447E-5</v>
+        <v>7.064306645280967E-5</v>
       </c>
       <c r="M22" t="n">
-        <v>8.452216335897243E-5</v>
+        <v>8.481066996243538E-5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.0502163854202326E-4</v>
+        <v>1.0550178571475082E-4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4753427753553324E-4</v>
+        <v>1.4325541148922787E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>4.003638573237961E-5</v>
+        <v>4.0031776244610565E-5</v>
       </c>
       <c r="C23" t="n">
-        <v>4.015281298314365E-5</v>
+        <v>4.0162969713749125E-5</v>
       </c>
       <c r="D23" t="n">
-        <v>4.0327442727025513E-5</v>
+        <v>4.0285259883256785E-5</v>
       </c>
       <c r="E23" t="n">
-        <v>4.1659702630960286E-5</v>
+        <v>4.1625105368083706E-5</v>
       </c>
       <c r="F23" t="n">
-        <v>4.32629342842269E-5</v>
+        <v>4.336815343301917E-5</v>
       </c>
       <c r="G23" t="n">
-        <v>4.713154858279659E-5</v>
+        <v>4.7106686392645086E-5</v>
       </c>
       <c r="H23" t="n">
-        <v>5.151701006969011E-5</v>
+        <v>5.1152927869688534E-5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.635003786277244E-5</v>
+        <v>5.616491027210709E-5</v>
       </c>
       <c r="J23" t="n">
-        <v>6.247717934185371E-5</v>
+        <v>6.235933399806707E-5</v>
       </c>
       <c r="K23" t="n">
-        <v>6.974274236602507E-5</v>
+        <v>6.99194721061177E-5</v>
       </c>
       <c r="L23" t="n">
-        <v>8.099998790072215E-5</v>
+        <v>7.943978860866048E-5</v>
       </c>
       <c r="M23" t="n">
-        <v>9.431726597934289E-5</v>
+        <v>9.442829104603769E-5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1564607043085904E-4</v>
+        <v>1.1615122491173048E-4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.590883599449693E-4</v>
+        <v>1.5472318207825322E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CharacteristicsDependancy.xlsx
+++ b/CharacteristicsDependancy.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>МО числа требований 1 класса в S1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>L01</t>
+  </si>
+  <si>
+    <t>Характеристики узла в ненадежной среде</t>
   </si>
 </sst>
 </file>
@@ -318,46 +321,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.055049888499384E-8</c:v>
+                  <c:v>4.9048999060908056E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5275250198559155E-7</c:v>
+                  <c:v>2.8528500258625804E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2552499894030867E-7</c:v>
+                  <c:v>4.9549499887187602E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4274249975574694E-6</c:v>
+                  <c:v>2.8027999972643141E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0050000011299025E-6</c:v>
+                  <c:v>5.2052000013562587E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0104561073004199E-5</c:v>
+                  <c:v>1.0910900002146794E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4154237666283881E-5</c:v>
+                  <c:v>1.7676024037645201E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3540520268883593E-5</c:v>
+                  <c:v>1.8059970228732063E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1986968534882536E-5</c:v>
+                  <c:v>2.2635693099275753E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6397066036996172E-5</c:v>
+                  <c:v>2.7692241029066868E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7234801652510124E-5</c:v>
+                  <c:v>3.4441718454659587E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8169881637098382E-5</c:v>
+                  <c:v>4.3612232669080537E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8657900478001957E-5</c:v>
+                  <c:v>3.7657780902416348E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0605781433388735E-5</c:v>
+                  <c:v>4.3167063878133498E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,11 +382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85944960"/>
-        <c:axId val="85950848"/>
+        <c:axId val="118254208"/>
+        <c:axId val="118264192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85944960"/>
+        <c:axId val="118254208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -425,7 +428,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85950848"/>
+        <c:crossAx val="118264192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -433,7 +436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85950848"/>
+        <c:axId val="118264192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,7 +487,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85944960"/>
+        <c:crossAx val="118254208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -727,46 +730,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.5146372331511488E-5</c:v>
+                  <c:v>2.5081807840961791E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2519882278914414E-4</c:v>
+                  <c:v>1.2468831280532789E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4950926217452772E-4</c:v>
+                  <c:v>2.4729454966766437E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2540527979586916E-3</c:v>
+                  <c:v>1.2457695229734199E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.500948448176893E-3</c:v>
+                  <c:v>2.4991113985155201E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.999044051306259E-3</c:v>
+                  <c:v>4.9968418513071326E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4759685017475831E-3</c:v>
+                  <c:v>7.4919840884407419E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.981051026116081E-3</c:v>
+                  <c:v>9.992935393649597E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.241307930974276E-2</c:v>
+                  <c:v>1.2500285083555331E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4917920180985145E-2</c:v>
+                  <c:v>1.4965159970619887E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7592828770171234E-2</c:v>
+                  <c:v>1.7473769255855049E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.00191561446912E-2</c:v>
+                  <c:v>2.006120870660311E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2528095645113891E-2</c:v>
+                  <c:v>2.2500221412120811E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5004698670798513E-2</c:v>
+                  <c:v>2.4953550056333713E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,11 +791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98981760"/>
-        <c:axId val="98983296"/>
+        <c:axId val="118122368"/>
+        <c:axId val="118123904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98981760"/>
+        <c:axId val="118122368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +837,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98983296"/>
+        <c:crossAx val="118123904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -842,7 +845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98983296"/>
+        <c:axId val="118123904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +896,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98981760"/>
+        <c:crossAx val="118122368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1136,46 +1139,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0240060746434063E-4</c:v>
+                  <c:v>4.0137577229212699E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0049662717940087E-3</c:v>
+                  <c:v>1.996862863588687E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9989030279538535E-3</c:v>
+                  <c:v>3.9630990359579002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0251985162569892E-2</c:v>
+                  <c:v>2.0113739292667552E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.078256456054262E-2</c:v>
+                  <c:v>4.0781348728509144E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3530980395682478E-2</c:v>
+                  <c:v>8.3618474460216669E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12856699073613845</c:v>
+                  <c:v>0.12907653955521894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17878199817288648</c:v>
+                  <c:v>0.17907405190049056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23337487984798636</c:v>
+                  <c:v>0.23681388735035672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30012422445385051</c:v>
+                  <c:v>0.30268608175681105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39010079627631128</c:v>
+                  <c:v>0.3851286413763314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.49882483882835771</c:v>
+                  <c:v>0.50360173957207677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6717939473618797</c:v>
+                  <c:v>0.66945571617692134</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96912283624427087</c:v>
+                  <c:v>0.95761049868487069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,11 +1200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99005568"/>
-        <c:axId val="99007104"/>
+        <c:axId val="118150272"/>
+        <c:axId val="118151808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99005568"/>
+        <c:axId val="118150272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1246,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99007104"/>
+        <c:crossAx val="118151808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1251,7 +1254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99007104"/>
+        <c:axId val="118151808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1305,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99005568"/>
+        <c:crossAx val="118150272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1545,46 +1548,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0280395689913033E-4</c:v>
+                  <c:v>4.0176918347660078E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0070128856621789E-3</c:v>
+                  <c:v>1.999266148260904E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0023433828666778E-3</c:v>
+                  <c:v>3.9670907800541458E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.029219346947702E-2</c:v>
+                  <c:v>2.0162045570326539E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0843918710783203E-2</c:v>
+                  <c:v>4.0910670419273418E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3834791966542574E-2</c:v>
+                  <c:v>8.3862521440954949E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12866537912900561</c:v>
+                  <c:v>0.12905189121937882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17846913756618224</c:v>
+                  <c:v>0.1783473928176858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22992966445804944</c:v>
+                  <c:v>0.23279844723496898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29323436026936339</c:v>
+                  <c:v>0.29503997047216329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37235032954549385</c:v>
+                  <c:v>0.36814032853103029</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46422241711268031</c:v>
+                  <c:v>0.46820242973148973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60312896908065161</c:v>
+                  <c:v>0.60171046195262834</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82977921639565511</c:v>
+                  <c:v>0.82121099129335562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,11 +1609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99366784"/>
-        <c:axId val="99368320"/>
+        <c:axId val="118313344"/>
+        <c:axId val="118314880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99366784"/>
+        <c:axId val="118313344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1655,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99368320"/>
+        <c:crossAx val="118314880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99368320"/>
+        <c:axId val="118314880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1714,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99366784"/>
+        <c:crossAx val="118313344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1832,7 +1835,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1949,46 +1951,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>8.3040148719386742E-4</c:v>
+                  <c:v>8.2827581260875053E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1374307327473169E-3</c:v>
+                  <c:v>4.1211026096575048E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2512811979939989E-3</c:v>
+                  <c:v>8.1779798606785824E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1800658855003156E-2</c:v>
+                  <c:v>4.1524357185964776E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.413243671950385E-2</c:v>
+                  <c:v>8.4196335746299436E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17237492097460433</c:v>
+                  <c:v>0.1724887486524809</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26472249260455794</c:v>
+                  <c:v>0.26563809088707613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36725572728545364</c:v>
+                  <c:v>0.36743244008205467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47573961058431347</c:v>
+                  <c:v>0.48213525536198032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60830290197023607</c:v>
+                  <c:v>0.61271890444062327</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7800811893936288</c:v>
+                  <c:v>0.77077718088167146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98311458196736634</c:v>
+                  <c:v>0.99190899024283874</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2974996699881234</c:v>
+                  <c:v>1.2937040573225729</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8239573570921577</c:v>
+                  <c:v>1.8038182070984381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,11 +2012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99415552"/>
-        <c:axId val="99417088"/>
+        <c:axId val="118357376"/>
+        <c:axId val="118686848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99415552"/>
+        <c:axId val="118357376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2058,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99417088"/>
+        <c:crossAx val="118686848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2064,7 +2066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99417088"/>
+        <c:axId val="118686848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2117,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99415552"/>
+        <c:crossAx val="118357376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2129,7 +2131,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2241,7 +2242,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2358,46 +2358,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.9509802829517389E-6</c:v>
+                  <c:v>4.9494948547319406E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9509804310511366E-6</c:v>
+                  <c:v>4.956521784063902E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9528301786921439E-6</c:v>
+                  <c:v>4.949999988730031E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9489795868569583E-6</c:v>
+                  <c:v>4.955752207552296E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.950495050622548E-6</c:v>
+                  <c:v>4.9664624364194316E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9509803931751156E-6</c:v>
+                  <c:v>4.9545454555202951E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9484536090434967E-6</c:v>
+                  <c:v>4.9648703378943084E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9747781785362418E-6</c:v>
+                  <c:v>4.9603331061359007E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0116584585591007E-6</c:v>
+                  <c:v>4.9564051754926186E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9582726873752629E-6</c:v>
+                  <c:v>4.9751345058976492E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9541685898022243E-6</c:v>
+                  <c:v>4.9841500425583179E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9956286406588135E-6</c:v>
+                  <c:v>5.0185328764493592E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9965018616688513E-6</c:v>
+                  <c:v>4.9455387614358618E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9969855289089898E-6</c:v>
+                  <c:v>4.9857148871649392E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,11 +2419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99787520"/>
-        <c:axId val="99789056"/>
+        <c:axId val="118733440"/>
+        <c:axId val="119013760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99787520"/>
+        <c:axId val="118733440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2465,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99789056"/>
+        <c:crossAx val="119013760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2473,7 +2473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99789056"/>
+        <c:axId val="119013760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2524,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99787520"/>
+        <c:crossAx val="118733440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2538,7 +2538,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2650,7 +2649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2767,46 +2765,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.4999752284329216E-6</c:v>
+                  <c:v>2.4999751656096022E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4999749958045981E-6</c:v>
+                  <c:v>2.4999748937557025E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4999749478196213E-6</c:v>
+                  <c:v>2.4999747233910028E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4999750520543396E-6</c:v>
+                  <c:v>2.4999748862035987E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4999749829182945E-6</c:v>
+                  <c:v>2.4999749646274405E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5000222602217147E-6</c:v>
+                  <c:v>2.4999749600882562E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5000385278692137E-6</c:v>
+                  <c:v>2.5000111453204574E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.500004263605632E-6</c:v>
+                  <c:v>2.4999854580125439E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5001189443756275E-6</c:v>
+                  <c:v>2.500047662200179E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5000705714470675E-6</c:v>
+                  <c:v>2.5000358811654419E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4999889912953436E-6</c:v>
+                  <c:v>2.5000404307331774E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5000902220240315E-6</c:v>
+                  <c:v>2.500070935687037E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5002259692450114E-6</c:v>
+                  <c:v>2.5000550714419007E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5000805855673704E-6</c:v>
+                  <c:v>2.500087642112427E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,11 +2826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100927360"/>
-        <c:axId val="100928896"/>
+        <c:axId val="119027584"/>
+        <c:axId val="119029120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100927360"/>
+        <c:axId val="119027584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,7 +2872,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100928896"/>
+        <c:crossAx val="119029120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2882,7 +2880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100928896"/>
+        <c:axId val="119029120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2931,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100927360"/>
+        <c:crossAx val="119027584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2947,7 +2945,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3059,7 +3056,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3176,46 +3172,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0017457678376392E-5</c:v>
+                  <c:v>4.0016344215596806E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.008369221654161E-5</c:v>
+                  <c:v>4.0080429027723161E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0156904357959443E-5</c:v>
+                  <c:v>4.015254670999158E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0852832443472262E-5</c:v>
+                  <c:v>4.0849487731617519E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1809458265669958E-5</c:v>
+                  <c:v>4.1821072855603256E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4065252957344062E-5</c:v>
+                  <c:v>4.4138915066023128E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6820867588231518E-5</c:v>
+                  <c:v>4.699489373597177E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0627461723318868E-5</c:v>
+                  <c:v>5.0658782731821844E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5173630658832748E-5</c:v>
+                  <c:v>5.5814282923136672E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1591872283150496E-5</c:v>
+                  <c:v>6.2118249407865322E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.143695697524598E-5</c:v>
+                  <c:v>7.0643066452809666E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4112218347656806E-5</c:v>
+                  <c:v>8.4810669962435379E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0577396554133889E-4</c:v>
+                  <c:v>1.0550178571475082E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4484804514320858E-4</c:v>
+                  <c:v>1.4325541148922787E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3237,11 +3233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100963456"/>
-        <c:axId val="100964992"/>
+        <c:axId val="119059584"/>
+        <c:axId val="119061120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100963456"/>
+        <c:axId val="119059584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3279,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100964992"/>
+        <c:crossAx val="119061120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3291,7 +3287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100964992"/>
+        <c:axId val="119061120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3342,7 +3338,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100963456"/>
+        <c:crossAx val="119059584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3356,7 +3352,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3468,7 +3463,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3585,46 +3579,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0028705396666646E-5</c:v>
+                  <c:v>4.0031776244610565E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.015743726158511E-5</c:v>
+                  <c:v>4.0162969713749125E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0288397802108844E-5</c:v>
+                  <c:v>4.0285259883256785E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1656300029478152E-5</c:v>
+                  <c:v>4.1625105368083706E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3255284577197783E-5</c:v>
+                  <c:v>4.3368153433019168E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7083107891783774E-5</c:v>
+                  <c:v>4.7106686392645086E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.109096694878073E-5</c:v>
+                  <c:v>5.1152927869688534E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6224655892972187E-5</c:v>
+                  <c:v>5.6164910272107087E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1644229753759889E-5</c:v>
+                  <c:v>6.2359333998067068E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9514568180009551E-5</c:v>
+                  <c:v>6.9919472106117701E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0130625358370631E-5</c:v>
+                  <c:v>7.943978860866048E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3659800316996328E-5</c:v>
+                  <c:v>9.4428291046037691E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1638946830480306E-4</c:v>
+                  <c:v>1.1615122491173048E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5639712694719152E-4</c:v>
+                  <c:v>1.5472318207825322E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3646,11 +3640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101396864"/>
-        <c:axId val="101398400"/>
+        <c:axId val="120537472"/>
+        <c:axId val="120539008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101396864"/>
+        <c:axId val="120537472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3692,7 +3686,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101398400"/>
+        <c:crossAx val="120539008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3700,7 +3694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101398400"/>
+        <c:axId val="120539008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3751,7 +3745,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101396864"/>
+        <c:crossAx val="120537472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3765,7 +3759,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8842,14 +8835,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8872,14 +8865,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8902,14 +8895,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8932,14 +8925,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8962,14 +8955,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8992,14 +8985,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9022,14 +9015,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9052,14 +9045,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9082,14 +9075,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9366,7 +9359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9374,10 +9367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9920,46 +9913,46 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>4.9048999060908056E-8</v>
+        <v>4.554549915794895E-8</v>
       </c>
       <c r="C15" t="n">
-        <v>2.8528500258625804E-7</v>
+        <v>3.153150024953254E-7</v>
       </c>
       <c r="D15" t="n">
-        <v>4.95494998871876E-7</v>
+        <v>4.4043999906977724E-7</v>
       </c>
       <c r="E15" t="n">
-        <v>2.802799997264314E-6</v>
+        <v>2.7527499986373163E-6</v>
       </c>
       <c r="F15" t="n">
-        <v>5.205200001356259E-6</v>
+        <v>5.41178865227535E-6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0910900002146794E-5</v>
+        <v>9.421772055399135E-6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.76760240376452E-5</v>
+        <v>1.3599784611960377E-5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8059970228732063E-5</v>
+        <v>1.87394015698027E-5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2635693099275753E-5</v>
+        <v>2.2789002662449432E-5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.769224102906687E-5</v>
+        <v>2.98399157221502E-5</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4441718454659587E-5</v>
+        <v>3.292085855291904E-5</v>
       </c>
       <c r="M15" t="n">
-        <v>4.361223266908054E-5</v>
+        <v>3.715538335434872E-5</v>
       </c>
       <c r="N15" t="n">
-        <v>3.765778090241635E-5</v>
+        <v>5.10153773876514E-5</v>
       </c>
       <c r="O15" t="n">
-        <v>4.31670638781335E-5</v>
+        <v>5.122066852764156E-5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -9967,46 +9960,46 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>2.508180784096179E-5</v>
+        <v>2.509306910387978E-5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.246883128053279E-4</v>
+        <v>1.2434421905072382E-4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.4729454966766437E-4</v>
+        <v>2.4906131468886223E-4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0012457695229734199</v>
+        <v>0.0012516629104529905</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00249911139851552</v>
+        <v>0.002497344848180885</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0049968418513071326</v>
+        <v>0.005020715701306257</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007491984088440742</v>
+        <v>0.007459988149168892</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009992935393649597</v>
+        <v>0.010041131102069828</v>
       </c>
       <c r="J16" t="n">
-        <v>0.012500285083555331</v>
+        <v>0.012470252681477884</v>
       </c>
       <c r="K16" t="n">
-        <v>0.014965159970619887</v>
+        <v>0.01502400900223684</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01747376925585505</v>
+        <v>0.01742826304431555</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02006120870660311</v>
+        <v>0.019948101726693573</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02250022141212081</v>
+        <v>0.02255030072224286</v>
       </c>
       <c r="O16" t="n">
-        <v>0.024953550056333713</v>
+        <v>0.024883464576189448</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -10014,46 +10007,46 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>4.01375772292127E-4</v>
+        <v>4.015465269408129E-4</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001996862863588687</v>
+        <v>0.001991155160460868</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0039630990359579</v>
+        <v>0.0039914707508654996</v>
       </c>
       <c r="E17" t="n">
-        <v>0.020113739292667552</v>
+        <v>0.020210023597246534</v>
       </c>
       <c r="F17" t="n">
-        <v>0.040781348728509144</v>
+        <v>0.04074758298746837</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08361847446021667</v>
+        <v>0.08383250685898734</v>
       </c>
       <c r="H17" t="n">
-        <v>0.12907653955521894</v>
+        <v>0.12850199168579332</v>
       </c>
       <c r="I17" t="n">
-        <v>0.17907405190049056</v>
+        <v>0.18073619981804942</v>
       </c>
       <c r="J17" t="n">
-        <v>0.23681388735035672</v>
+        <v>0.23585618778691608</v>
       </c>
       <c r="K17" t="n">
-        <v>0.30268608175681105</v>
+        <v>0.3036381716269749</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3851286413763314</v>
+        <v>0.3851170402163171</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5036017395720768</v>
+        <v>0.4939457742635197</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6694557161769213</v>
+        <v>0.6715080316388303</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9576104986848707</v>
+        <v>0.9470797943003115</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -10061,46 +10054,46 @@
         <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>4.017691834766008E-4</v>
+        <v>4.0191777440302256E-4</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001999266148260904</v>
+        <v>0.0019937644191427998</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003967090780054146</v>
+        <v>0.003996680006545663</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02016204557032654</v>
+        <v>0.020253767610277112</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04091067041927342</v>
+        <v>0.040859566531454256</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08386252144095495</v>
+        <v>0.08413090487735086</v>
       </c>
       <c r="H18" t="n">
-        <v>0.12905189121937882</v>
+        <v>0.1285644249315754</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1783473928176858</v>
+        <v>0.18004552503524726</v>
       </c>
       <c r="J18" t="n">
-        <v>0.23279844723496898</v>
+        <v>0.2323477199249933</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2950399704721633</v>
+        <v>0.2958003223891175</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3681403285310303</v>
+        <v>0.36709548724190344</v>
       </c>
       <c r="M18" t="n">
-        <v>0.46820242973148973</v>
+        <v>0.45959885135538725</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6017104619526283</v>
+        <v>0.6021708244852496</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8212109912933556</v>
+        <v>0.811879830764057</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -10108,46 +10101,46 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>8.282758126087505E-4</v>
+        <v>8.286029159468731E-4</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004121102609657505</v>
+        <v>0.004109579113656887</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008177979860678582</v>
+        <v>0.008237652512099094</v>
       </c>
       <c r="E19" t="n">
-        <v>0.041524357185964776</v>
+        <v>0.041718206867975276</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08419633574629944</v>
+        <v>0.08410990615575578</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1724887486524809</v>
+        <v>0.17299354920969987</v>
       </c>
       <c r="H19" t="n">
-        <v>0.26563809088707613</v>
+        <v>0.26454000455114957</v>
       </c>
       <c r="I19" t="n">
-        <v>0.36743244008205467</v>
+        <v>0.3708415953569363</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4821352553619803</v>
+        <v>0.48069694939604973</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6127189044406233</v>
+        <v>0.6144923429340514</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7707771808816715</v>
+        <v>0.769673711361089</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9919089902428387</v>
+        <v>0.9735298827289549</v>
       </c>
       <c r="N19" t="n">
-        <v>1.2937040573225729</v>
+        <v>1.2962801722237103</v>
       </c>
       <c r="O19" t="n">
-        <v>1.803818207098438</v>
+        <v>1.7838943103090856</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -10155,46 +10148,46 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>4.949494854731941E-6</v>
+        <v>4.945652082477192E-6</v>
       </c>
       <c r="C20" t="n">
-        <v>4.956521784063902E-6</v>
+        <v>4.960629960517049E-6</v>
       </c>
       <c r="D20" t="n">
-        <v>4.949999988730031E-6</v>
+        <v>4.943820214277601E-6</v>
       </c>
       <c r="E20" t="n">
-        <v>4.955752207552296E-6</v>
+        <v>4.954954952502122E-6</v>
       </c>
       <c r="F20" t="n">
-        <v>4.9664624364194316E-6</v>
+        <v>4.9545454558513435E-6</v>
       </c>
       <c r="G20" t="n">
-        <v>4.954545455520295E-6</v>
+        <v>4.947916667608892E-6</v>
       </c>
       <c r="H20" t="n">
-        <v>4.964870337894308E-6</v>
+        <v>4.949497035796333E-6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.960333106135901E-6</v>
+        <v>4.947916666999426E-6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.956405175492619E-6</v>
+        <v>5.009652555748894E-6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.975134505897649E-6</v>
+        <v>4.951456310599093E-6</v>
       </c>
       <c r="L20" t="n">
-        <v>4.984150042558318E-6</v>
+        <v>4.963503682752825E-6</v>
       </c>
       <c r="M20" t="n">
-        <v>5.018532876449359E-6</v>
+        <v>4.970204118109837E-6</v>
       </c>
       <c r="N20" t="n">
-        <v>4.945538761435862E-6</v>
+        <v>4.966566743503762E-6</v>
       </c>
       <c r="O20" t="n">
-        <v>4.985714887164939E-6</v>
+        <v>4.9865391867358566E-6</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -10202,46 +10195,46 @@
         <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>2.499975165609602E-6</v>
+        <v>2.4999751780416467E-6</v>
       </c>
       <c r="C21" t="n">
-        <v>2.4999748937557025E-6</v>
+        <v>2.4999748241881353E-6</v>
       </c>
       <c r="D21" t="n">
-        <v>2.4999747233910028E-6</v>
+        <v>2.4999749029065328E-6</v>
       </c>
       <c r="E21" t="n">
-        <v>2.4999748862035987E-6</v>
+        <v>2.499975004408572E-6</v>
       </c>
       <c r="F21" t="n">
-        <v>2.4999749646274405E-6</v>
+        <v>2.4999813422027853E-6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.499974960088256E-6</v>
+        <v>2.499981239594716E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5000111453204574E-6</v>
+        <v>2.5000037570906276E-6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.499985458012544E-6</v>
+        <v>2.5000549991415243E-6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.500047662200179E-6</v>
+        <v>2.5000283426746045E-6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.500035881165442E-6</v>
+        <v>2.500043324880457E-6</v>
       </c>
       <c r="L21" t="n">
-        <v>2.5000404307331774E-6</v>
+        <v>2.500023400689765E-6</v>
       </c>
       <c r="M21" t="n">
-        <v>2.500070935687037E-6</v>
+        <v>2.5000148361833176E-6</v>
       </c>
       <c r="N21" t="n">
-        <v>2.5000550714419007E-6</v>
+        <v>2.5001874783697116E-6</v>
       </c>
       <c r="O21" t="n">
-        <v>2.500087642112427E-6</v>
+        <v>2.500142753698295E-6</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -10249,46 +10242,46 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0016344215596806E-5</v>
+        <v>4.001439148620459E-5</v>
       </c>
       <c r="C22" t="n">
-        <v>4.008042902772316E-5</v>
+        <v>4.007701939869165E-5</v>
       </c>
       <c r="D22" t="n">
-        <v>4.015254670999158E-5</v>
+        <v>4.015142161131034E-5</v>
       </c>
       <c r="E22" t="n">
-        <v>4.084948773161752E-5</v>
+        <v>4.08452766158973E-5</v>
       </c>
       <c r="F22" t="n">
-        <v>4.1821072855603256E-5</v>
+        <v>4.1826706500993046E-5</v>
       </c>
       <c r="G22" t="n">
-        <v>4.413891506602313E-5</v>
+        <v>4.406039778470047E-5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.699489373597177E-5</v>
+        <v>4.6998366512746354E-5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.0658782731821844E-5</v>
+        <v>5.0981293637326116E-5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.581428292313667E-5</v>
+        <v>5.569418624363062E-5</v>
       </c>
       <c r="K22" t="n">
-        <v>6.211824940786532E-5</v>
+        <v>6.212481787561066E-5</v>
       </c>
       <c r="L22" t="n">
-        <v>7.064306645280967E-5</v>
+        <v>7.1011762666348E-5</v>
       </c>
       <c r="M22" t="n">
-        <v>8.481066996243538E-5</v>
+        <v>8.303570837280958E-5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.0550178571475082E-4</v>
+        <v>1.0567963134757394E-4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4325541148922787E-4</v>
+        <v>1.4169167920419868E-4</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -10296,46 +10289,521 @@
         <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>4.0031776244610565E-5</v>
+        <v>4.00272340635286E-5</v>
       </c>
       <c r="C23" t="n">
-        <v>4.0162969713749125E-5</v>
+        <v>4.0149010333990904E-5</v>
       </c>
       <c r="D23" t="n">
-        <v>4.0285259883256785E-5</v>
+        <v>4.031623699688709E-5</v>
       </c>
       <c r="E23" t="n">
-        <v>4.1625105368083706E-5</v>
+        <v>4.162168385823553E-5</v>
       </c>
       <c r="F23" t="n">
-        <v>4.336815343301917E-5</v>
+        <v>4.334711280244024E-5</v>
       </c>
       <c r="G23" t="n">
-        <v>4.7106686392645086E-5</v>
+        <v>4.701226913237886E-5</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1152927869688534E-5</v>
+        <v>5.124264792871189E-5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.616491027210709E-5</v>
+        <v>5.662017023992435E-5</v>
       </c>
       <c r="J23" t="n">
-        <v>6.235933399806707E-5</v>
+        <v>6.224501776061085E-5</v>
       </c>
       <c r="K23" t="n">
-        <v>6.99194721061177E-5</v>
+        <v>6.987520502913294E-5</v>
       </c>
       <c r="L23" t="n">
-        <v>7.943978860866048E-5</v>
+        <v>7.958709809982531E-5</v>
       </c>
       <c r="M23" t="n">
-        <v>9.442829104603769E-5</v>
+        <v>9.284910416087126E-5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1615122491173048E-4</v>
+        <v>1.1625302609299373E-4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5472318207825322E-4</v>
+        <v>1.5307332857766358E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.967016996185635E-8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9.83607057988953E-8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.967460571282987E-7</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.847172195223919E-7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.9719073503224382E-6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.9537437007605725E-6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5.945584232738673E-6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7.94750488862353E-6</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9.959582381376142E-6</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.1981894204350671E-5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.4014518641243366E-5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.6057534776193972E-5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.8111022504042568E-5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2.017506254074445E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9.835084980928175E-6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.9180352899447674E-5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9.837302856414932E-5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.92358609761196E-4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9.859536751612192E-4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0019768718503802856</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.002972792116369337</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.003973752444311763</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.00497979119068807</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.005990947102175336</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.007007259320621684</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.008028767388096986</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.009055511252021285</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.010087531270372225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.5748346756022565E-4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.899484627117246E-4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0015862706885188085</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.008195869590657642</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.017104810838818034</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.037469620390701515</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.06212457932506007</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.09258497146310679</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.13117488753056644</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.18164920850153596</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.2504779584528176</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.3496092422189913</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.5017157698429743</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.7425345550686313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.5764095102778583E-4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7.907384111744363E-4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.001587856959207327</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0082040654602483</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.017121915649656858</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03750709001109222</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.06218670390438513</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0926775564345699</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.131306062418097</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.18183085771003749</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.25072843641127046</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.3499588514612103</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.5022174856128172</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.7432770896236998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.2499884390886337E-4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0016300639481972065</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0032728941684045413</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.016894263095106183</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.035216623978336754</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.07696148973957555</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.12729596651428002</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.1892521753517657</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.26748066030411427</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.3694949771021575</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.5082416832219923</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.707628976137851</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.0130249887528209</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.4959395260877846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.967016996185635E-6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.967214115977906E-6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.9674605712829865E-6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.9694344390447837E-6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.9719073503224382E-6</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.9768718503802863E-6</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.981861410912891E-6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.9868762221558824E-6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.9919164762752285E-6</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.9969823673917788E-6</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.0020740916061952E-6</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.0071918470242465E-6</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.0123358337825077E-6</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.0175062540744446E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9.835084980928176E-7</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9.836070579889536E-7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.837302856414933E-7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9.847172195223919E-7</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.859536751612191E-7</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.884359251901427E-7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9.909307054564455E-7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.934381110779408E-7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>9.95958238137614E-7</v>
+      </c>
+      <c r="K58" t="n">
+        <v>9.984911836958894E-7</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.0010370458030976E-6</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.0035959235121233E-6</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.0061679168912539E-6</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.0087531270372223E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.5732614141880686E-5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.5783186068166328E-5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.5846860025162923E-5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.6375363817497784E-5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.708772311570233E-5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.871609410124951E-5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.0687505602750605E-5</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.3123119746030666E-5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.620876873737591E-5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.0244623460129196E-5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.574681867458508E-5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4.365749777959432E-5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5.569050614307628E-5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7.417927623063249E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.152819020555716E-5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.1629536446977454E-5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.1757139184146536E-5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.2816261840993195E-5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.424383129931371E-5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.7507090011092227E-5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.145780260292343E-5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4.6338778217284955E-5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.2522424967238804E-5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6.061028590334583E-5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.163669611750583E-5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>8.748971286530257E-5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.1160388569173715E-4</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.4865541792473996E-4</v>
       </c>
     </row>
   </sheetData>

--- a/CharacteristicsDependancy.xlsx
+++ b/CharacteristicsDependancy.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Imitation_Model\magistrature\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>МО числа требований 1 класса в S1</t>
   </si>
@@ -59,11 +64,14 @@
   <si>
     <t>Характеристики узла в ненадежной среде</t>
   </si>
+  <si>
+    <t>Усредненное значение для характеристики</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -128,11 +136,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -142,9 +187,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,7 +214,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -213,6 +267,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -290,7 +364,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-19E9-451C-86D0-713226C87C90}"/>
             </c:ext>
@@ -321,52 +395,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.9048999060908056E-8</c:v>
+                  <c:v>4.6546499296249815E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8528500258625804E-7</c:v>
+                  <c:v>2.7777750246918545E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9549499887187602E-7</c:v>
+                  <c:v>5.6055999870782502E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8027999972643141E-6</c:v>
+                  <c:v>2.6526499985046895E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2052000013562587E-6</c:v>
+                  <c:v>5.2512719589205013E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0910900002146794E-5</c:v>
+                  <c:v>9.6096000019682355E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7676024037645201E-5</c:v>
+                  <c:v>1.6576569958325103E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8059970228732063E-5</c:v>
+                  <c:v>2.2291353961321324E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2635693099275753E-5</c:v>
+                  <c:v>2.3983611597385668E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7692241029066868E-5</c:v>
+                  <c:v>3.4414303379591915E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4441718454659587E-5</c:v>
+                  <c:v>3.4057312143478426E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3612232669080537E-5</c:v>
+                  <c:v>3.7623694528159758E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7657780902416348E-5</c:v>
+                  <c:v>4.559231981955841E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3167063878133498E-5</c:v>
+                  <c:v>5.4151140148176522E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-19E9-451C-86D0-713226C87C90}"/>
             </c:ext>
@@ -380,7 +454,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="118254208"/>
         <c:axId val="118264192"/>
@@ -569,7 +642,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -622,6 +695,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -699,7 +792,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF37-49A2-8BDF-4D506475B5CA}"/>
             </c:ext>
@@ -730,52 +823,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.5081807840961791E-5</c:v>
+                  <c:v>4.5545499150836417E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2468831280532789E-4</c:v>
+                  <c:v>2.5775750246994335E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4729454966766437E-4</c:v>
+                  <c:v>4.7046999894928316E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2457695229734199E-3</c:v>
+                  <c:v>2.6276249978655088E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4991113985155201E-3</c:v>
+                  <c:v>4.6546500011459445E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9968418513071326E-3</c:v>
+                  <c:v>8.1639191751862715E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4919840884407419E-3</c:v>
+                  <c:v>1.4826929560872308E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.992935393649597E-3</c:v>
+                  <c:v>1.9790676597645337E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2500285083555331E-2</c:v>
+                  <c:v>2.7996196366206418E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4965159970619887E-2</c:v>
+                  <c:v>2.8745702518782703E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7473769255855049E-2</c:v>
+                  <c:v>3.7828219591188817E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.006120870660311E-2</c:v>
+                  <c:v>3.9073241604513987E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2500221412120811E-2</c:v>
+                  <c:v>4.8666047686237728E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4953550056333713E-2</c:v>
+                  <c:v>4.469272865086407E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF37-49A2-8BDF-4D506475B5CA}"/>
             </c:ext>
@@ -789,7 +882,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="118122368"/>
         <c:axId val="118123904"/>
@@ -978,7 +1070,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1031,6 +1123,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1108,7 +1220,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A122-4E45-BA31-05C0D91B3BA6}"/>
             </c:ext>
@@ -1139,52 +1251,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0137577229212699E-4</c:v>
+                  <c:v>5.4554498965925132E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.996862863588687E-3</c:v>
+                  <c:v>2.3523500167419233E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9630990359579002E-3</c:v>
+                  <c:v>5.3553499888280718E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0113739292667552E-2</c:v>
+                  <c:v>2.7026999985672522E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0781348728509144E-2</c:v>
+                  <c:v>5.2183169412366068E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3618474460216669E-2</c:v>
+                  <c:v>1.0010000001909735E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12907653955521894</c:v>
+                  <c:v>1.3859272874539668E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17907405190049056</c:v>
+                  <c:v>2.1159999691484425E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23681388735035672</c:v>
+                  <c:v>2.7315554554429482E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30268608175681105</c:v>
+                  <c:v>2.6321752695385262E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3851286413763314</c:v>
+                  <c:v>3.2173525207862049E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.50360173957207677</c:v>
+                  <c:v>3.8355602783079359E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66945571617692134</c:v>
+                  <c:v>4.7999364539541232E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95761049868487069</c:v>
+                  <c:v>5.1041746183161058E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A122-4E45-BA31-05C0D91B3BA6}"/>
             </c:ext>
@@ -1198,7 +1310,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="118150272"/>
         <c:axId val="118151808"/>
@@ -1387,7 +1498,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1440,6 +1551,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1517,7 +1648,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4DC8-46F1-96AD-4136781CA271}"/>
             </c:ext>
@@ -1548,52 +1679,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0176918347660078E-4</c:v>
+                  <c:v>5.0550499158115101E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.999266148260904E-3</c:v>
+                  <c:v>2.0520500213408756E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9670907800541458E-3</c:v>
+                  <c:v>4.7046999898128957E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0162045570326539E-2</c:v>
+                  <c:v>2.5275249982082551E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0910670419273418E-2</c:v>
+                  <c:v>4.2042000010740906E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3862521440954949E-2</c:v>
+                  <c:v>1.0710700002091027E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12905189121937882</c:v>
+                  <c:v>1.6366350002579232E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1783473928176858</c:v>
+                  <c:v>1.8744706013119229E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23279844723496898</c:v>
+                  <c:v>2.5577171784338154E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29503997047216329</c:v>
+                  <c:v>2.8343680987130258E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36814032853103029</c:v>
+                  <c:v>3.3209261267661572E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46820242973148973</c:v>
+                  <c:v>3.887666880145907E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60171046195262834</c:v>
+                  <c:v>5.1668180271175938E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82121099129335562</c:v>
+                  <c:v>5.0188759328455217E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4DC8-46F1-96AD-4136781CA271}"/>
             </c:ext>
@@ -1607,7 +1738,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="118313344"/>
         <c:axId val="118314880"/>
@@ -1796,7 +1926,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1835,6 +1965,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1843,6 +1974,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1920,7 +2071,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DC9C-4A36-8C59-9B2B5462DA00}"/>
             </c:ext>
@@ -1951,52 +2102,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>8.2827581260875053E-4</c:v>
+                  <c:v>5.9058998762513974E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1211026096575048E-3</c:v>
+                  <c:v>2.7527500246216763E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1779798606785824E-3</c:v>
+                  <c:v>4.7547499895087181E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1524357185964776E-2</c:v>
+                  <c:v>2.3022999985457363E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4196335746299436E-2</c:v>
+                  <c:v>4.8048000013691942E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1724887486524809</c:v>
+                  <c:v>8.089958951148791E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26563809088707613</c:v>
+                  <c:v>1.5915900002782155E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36743244008205467</c:v>
+                  <c:v>2.1006916499127267E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48213525536198032</c:v>
+                  <c:v>2.1705035827464333E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61271890444062327</c:v>
+                  <c:v>2.3498498425394285E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77077718088167146</c:v>
+                  <c:v>3.2288248715009288E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99190899024283874</c:v>
+                  <c:v>4.0440399998735339E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2937040573225729</c:v>
+                  <c:v>4.6820316886651768E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8038182070984381</c:v>
+                  <c:v>5.2740594889080623E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DC9C-4A36-8C59-9B2B5462DA00}"/>
             </c:ext>
@@ -2010,7 +2161,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="118357376"/>
         <c:axId val="118686848"/>
@@ -2131,6 +2281,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2198,7 +2349,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2242,6 +2393,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2250,6 +2402,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2327,7 +2499,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-97B1-4AA4-BE42-E361AEA21424}"/>
             </c:ext>
@@ -2358,52 +2530,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.9494948547319406E-6</c:v>
+                  <c:v>4.9549499127746915E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.956521784063902E-6</c:v>
+                  <c:v>2.8278250296242792E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.949999988730031E-6</c:v>
+                  <c:v>3.6536499918797579E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.955752207552296E-6</c:v>
+                  <c:v>2.977974997666653E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9664624364194316E-6</c:v>
+                  <c:v>4.8079505990109737E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9545454555202951E-6</c:v>
+                  <c:v>9.4553142162043016E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9648703378943084E-6</c:v>
+                  <c:v>1.4800557365715006E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9603331061359007E-6</c:v>
+                  <c:v>1.9827768495239076E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9564051754926186E-6</c:v>
+                  <c:v>2.117530169163985E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9751345058976492E-6</c:v>
+                  <c:v>2.8954762459644897E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9841500425583179E-6</c:v>
+                  <c:v>3.2413596187167108E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0185328764493592E-6</c:v>
+                  <c:v>3.6543839385838612E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9455387614358618E-6</c:v>
+                  <c:v>4.1627116027210971E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9857148871649392E-6</c:v>
+                  <c:v>4.4233514797114566E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-97B1-4AA4-BE42-E361AEA21424}"/>
             </c:ext>
@@ -2417,7 +2589,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="118733440"/>
         <c:axId val="119013760"/>
@@ -2538,6 +2709,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2605,7 +2777,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2649,6 +2821,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2657,6 +2830,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2734,7 +2927,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4A1F-4EBC-9122-E5A3DA63B66D}"/>
             </c:ext>
@@ -2765,52 +2958,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.4999751656096022E-6</c:v>
+                  <c:v>5.1551499053167345E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4999748937557025E-6</c:v>
+                  <c:v>2.1271250193731964E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4999747233910028E-6</c:v>
+                  <c:v>5.105099989335423E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4999748862035987E-6</c:v>
+                  <c:v>2.4274249982665E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4999749646274405E-6</c:v>
+                  <c:v>5.1551500012664685E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4999749600882562E-6</c:v>
+                  <c:v>1.0345518327190191E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5000111453204574E-6</c:v>
+                  <c:v>1.6366350002486712E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4999854580125439E-6</c:v>
+                  <c:v>2.4937539690852526E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.500047662200179E-6</c:v>
+                  <c:v>2.6276250000950348E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5000358811654419E-6</c:v>
+                  <c:v>3.4578783287691727E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5000404307331774E-6</c:v>
+                  <c:v>3.4684649998863553E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.500070935687037E-6</c:v>
+                  <c:v>3.9238115397778707E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5000550714419007E-6</c:v>
+                  <c:v>4.9313598317943693E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.500087642112427E-6</c:v>
+                  <c:v>4.3710421826562632E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4A1F-4EBC-9122-E5A3DA63B66D}"/>
             </c:ext>
@@ -2824,7 +3017,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="119027584"/>
         <c:axId val="119029120"/>
@@ -2945,6 +3137,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3012,7 +3205,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3056,6 +3249,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3064,6 +3258,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3141,7 +3355,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CC01-4E82-A42C-F93AB9F8D978}"/>
             </c:ext>
@@ -3172,52 +3386,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0016344215596806E-5</c:v>
+                  <c:v>4.4043999187344991E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0080429027723161E-5</c:v>
+                  <c:v>2.6276250240663016E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.015254670999158E-5</c:v>
+                  <c:v>5.8057999878686075E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0849487731617519E-5</c:v>
+                  <c:v>3.078074997378362E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1821072855603256E-5</c:v>
+                  <c:v>5.3053000015458417E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4138915066023128E-5</c:v>
+                  <c:v>9.9099000021346803E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.699489373597177E-5</c:v>
+                  <c:v>1.471470000204664E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0658782731821844E-5</c:v>
+                  <c:v>1.9419400002174096E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5814282923136672E-5</c:v>
+                  <c:v>2.2289762027743992E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2118249407865322E-5</c:v>
+                  <c:v>2.7692767080398582E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0643066452809666E-5</c:v>
+                  <c:v>2.9779749998961719E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4810669962435379E-5</c:v>
+                  <c:v>4.1373278834940067E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0550178571475082E-4</c:v>
+                  <c:v>5.0804394617858535E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4325541148922787E-4</c:v>
+                  <c:v>4.9019522980178979E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CC01-4E82-A42C-F93AB9F8D978}"/>
             </c:ext>
@@ -3231,7 +3445,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="119059584"/>
         <c:axId val="119061120"/>
@@ -3352,6 +3565,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3419,7 +3633,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3463,6 +3677,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3471,6 +3686,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3548,7 +3783,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5316-4839-A33E-CF38AF37BEBA}"/>
             </c:ext>
@@ -3579,52 +3814,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0031776244610565E-5</c:v>
+                  <c:v>5.7056998881013439E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0162969713749125E-5</c:v>
+                  <c:v>2.4774750226850423E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0285259883256785E-5</c:v>
+                  <c:v>5.0049999893392117E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1625105368083706E-5</c:v>
+                  <c:v>2.6025999982665364E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3368153433019168E-5</c:v>
+                  <c:v>5.5126546919645357E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7106686392645086E-5</c:v>
+                  <c:v>9.0226685529242276E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1152927869688534E-5</c:v>
+                  <c:v>1.563618223740148E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6164910272107087E-5</c:v>
+                  <c:v>1.8674572943587357E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2359333998067068E-5</c:v>
+                  <c:v>2.8116168913714413E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9919472106117701E-5</c:v>
+                  <c:v>3.1573084389268865E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.943978860866048E-5</c:v>
+                  <c:v>3.2277517347227716E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4428291046037691E-5</c:v>
+                  <c:v>3.3264141993124431E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1615122491173048E-4</c:v>
+                  <c:v>3.8319671885523363E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5472318207825322E-4</c:v>
+                  <c:v>5.5270517655116944E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5316-4839-A33E-CF38AF37BEBA}"/>
             </c:ext>
@@ -3638,7 +3873,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="120537472"/>
         <c:axId val="120539008"/>
@@ -3759,6 +3993,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8835,14 +9070,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8865,14 +9100,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8895,14 +9130,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8925,14 +9160,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8955,14 +9190,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8985,14 +9220,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9015,14 +9250,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9045,14 +9280,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9075,14 +9310,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9359,7 +9594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9367,10 +9602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9865,948 +10100,1884 @@
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.01</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.05</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.1</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.5</v>
       </c>
-      <c r="F14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>10.0</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="n">
-        <v>4.554549915794895E-8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.153150024953254E-7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4.4043999906977724E-7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.7527499986373163E-6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.41178865227535E-6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9.421772055399135E-6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.3599784611960377E-5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.87394015698027E-5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.2789002662449432E-5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.98399157221502E-5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.292085855291904E-5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.715538335434872E-5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.10153773876514E-5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5.122066852764156E-5</v>
+      <c r="B15">
+        <v>4.6546499296249815E-8</v>
+      </c>
+      <c r="C15">
+        <v>2.7777750246918545E-7</v>
+      </c>
+      <c r="D15">
+        <v>5.6055999870782502E-7</v>
+      </c>
+      <c r="E15">
+        <v>2.6526499985046895E-6</v>
+      </c>
+      <c r="F15">
+        <v>5.2512719589205013E-6</v>
+      </c>
+      <c r="G15">
+        <v>9.6096000019682355E-6</v>
+      </c>
+      <c r="H15">
+        <v>1.6576569958325103E-5</v>
+      </c>
+      <c r="I15">
+        <v>2.2291353961321324E-5</v>
+      </c>
+      <c r="J15">
+        <v>2.3983611597385668E-5</v>
+      </c>
+      <c r="K15">
+        <v>3.4414303379591915E-5</v>
+      </c>
+      <c r="L15">
+        <v>3.4057312143478426E-5</v>
+      </c>
+      <c r="M15">
+        <v>3.7623694528159758E-5</v>
+      </c>
+      <c r="N15">
+        <v>4.559231981955841E-5</v>
+      </c>
+      <c r="O15">
+        <v>5.4151140148176522E-5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2.509306910387978E-5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.2434421905072382E-4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.4906131468886223E-4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0012516629104529905</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.002497344848180885</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.005020715701306257</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.007459988149168892</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.010041131102069828</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.012470252681477884</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.01502400900223684</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.01742826304431555</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.019948101726693573</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.02255030072224286</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.024883464576189448</v>
+      <c r="A16" s="6"/>
+      <c r="B16">
+        <v>4.5545499150836417E-8</v>
+      </c>
+      <c r="C16">
+        <v>2.5775750246994335E-7</v>
+      </c>
+      <c r="D16">
+        <v>4.7046999894928316E-7</v>
+      </c>
+      <c r="E16">
+        <v>2.6276249978655088E-6</v>
+      </c>
+      <c r="F16">
+        <v>4.6546500011459445E-6</v>
+      </c>
+      <c r="G16">
+        <v>8.1639191751862715E-6</v>
+      </c>
+      <c r="H16">
+        <v>1.4826929560872308E-5</v>
+      </c>
+      <c r="I16">
+        <v>1.9790676597645337E-5</v>
+      </c>
+      <c r="J16">
+        <v>2.7996196366206418E-5</v>
+      </c>
+      <c r="K16">
+        <v>2.8745702518782703E-5</v>
+      </c>
+      <c r="L16">
+        <v>3.7828219591188817E-5</v>
+      </c>
+      <c r="M16">
+        <v>3.9073241604513987E-5</v>
+      </c>
+      <c r="N16">
+        <v>4.8666047686237728E-5</v>
+      </c>
+      <c r="O16">
+        <v>4.469272865086407E-5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.015465269408129E-4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.001991155160460868</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0039914707508654996</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.020210023597246534</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.04074758298746837</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.08383250685898734</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.12850199168579332</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.18073619981804942</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.23585618778691608</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.3036381716269749</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.3851170402163171</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.4939457742635197</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.6715080316388303</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.9470797943003115</v>
+      <c r="A17" s="6"/>
+      <c r="B17">
+        <v>5.4554498965925132E-8</v>
+      </c>
+      <c r="C17">
+        <v>2.3523500167419233E-7</v>
+      </c>
+      <c r="D17">
+        <v>5.3553499888280718E-7</v>
+      </c>
+      <c r="E17">
+        <v>2.7026999985672522E-6</v>
+      </c>
+      <c r="F17">
+        <v>5.2183169412366068E-6</v>
+      </c>
+      <c r="G17">
+        <v>1.0010000001909735E-5</v>
+      </c>
+      <c r="H17">
+        <v>1.3859272874539668E-5</v>
+      </c>
+      <c r="I17">
+        <v>2.1159999691484425E-5</v>
+      </c>
+      <c r="J17">
+        <v>2.7315554554429482E-5</v>
+      </c>
+      <c r="K17">
+        <v>2.6321752695385262E-5</v>
+      </c>
+      <c r="L17">
+        <v>3.2173525207862049E-5</v>
+      </c>
+      <c r="M17">
+        <v>3.8355602783079359E-5</v>
+      </c>
+      <c r="N17">
+        <v>4.7999364539541232E-5</v>
+      </c>
+      <c r="O17">
+        <v>5.1041746183161058E-5</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.0191777440302256E-4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0019937644191427998</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.003996680006545663</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.020253767610277112</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.040859566531454256</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.08413090487735086</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.1285644249315754</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.18004552503524726</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.2323477199249933</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.2958003223891175</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.36709548724190344</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.45959885135538725</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.6021708244852496</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.811879830764057</v>
+      <c r="A18" s="6"/>
+      <c r="B18">
+        <v>5.0550499158115101E-8</v>
+      </c>
+      <c r="C18">
+        <v>2.0520500213408756E-7</v>
+      </c>
+      <c r="D18">
+        <v>4.7046999898128957E-7</v>
+      </c>
+      <c r="E18">
+        <v>2.5275249982082551E-6</v>
+      </c>
+      <c r="F18">
+        <v>4.2042000010740906E-6</v>
+      </c>
+      <c r="G18">
+        <v>1.0710700002091027E-5</v>
+      </c>
+      <c r="H18">
+        <v>1.6366350002579232E-5</v>
+      </c>
+      <c r="I18">
+        <v>1.8744706013119229E-5</v>
+      </c>
+      <c r="J18">
+        <v>2.5577171784338154E-5</v>
+      </c>
+      <c r="K18">
+        <v>2.8343680987130258E-5</v>
+      </c>
+      <c r="L18">
+        <v>3.3209261267661572E-5</v>
+      </c>
+      <c r="M18">
+        <v>3.887666880145907E-5</v>
+      </c>
+      <c r="N18">
+        <v>5.1668180271175938E-5</v>
+      </c>
+      <c r="O18">
+        <v>5.0188759328455217E-5</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>8.286029159468731E-4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.004109579113656887</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.008237652512099094</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.041718206867975276</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.08410990615575578</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.17299354920969987</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.26454000455114957</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.3708415953569363</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.48069694939604973</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.6144923429340514</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.769673711361089</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9735298827289549</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.2962801722237103</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.7838943103090856</v>
+      <c r="A19" s="6"/>
+      <c r="B19">
+        <v>5.9058998762513974E-8</v>
+      </c>
+      <c r="C19">
+        <v>2.7527500246216763E-7</v>
+      </c>
+      <c r="D19">
+        <v>4.7547499895087181E-7</v>
+      </c>
+      <c r="E19">
+        <v>2.3022999985457363E-6</v>
+      </c>
+      <c r="F19">
+        <v>4.8048000013691942E-6</v>
+      </c>
+      <c r="G19">
+        <v>8.089958951148791E-6</v>
+      </c>
+      <c r="H19">
+        <v>1.5915900002782155E-5</v>
+      </c>
+      <c r="I19">
+        <v>2.1006916499127267E-5</v>
+      </c>
+      <c r="J19">
+        <v>2.1705035827464333E-5</v>
+      </c>
+      <c r="K19">
+        <v>2.3498498425394285E-5</v>
+      </c>
+      <c r="L19">
+        <v>3.2288248715009288E-5</v>
+      </c>
+      <c r="M19">
+        <v>4.0440399998735339E-5</v>
+      </c>
+      <c r="N19">
+        <v>4.6820316886651768E-5</v>
+      </c>
+      <c r="O19">
+        <v>5.2740594889080623E-5</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4.945652082477192E-6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.960629960517049E-6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.943820214277601E-6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.954954952502122E-6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4.9545454558513435E-6</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4.947916667608892E-6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.949497035796333E-6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.947916666999426E-6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.009652555748894E-6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.951456310599093E-6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.963503682752825E-6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4.970204118109837E-6</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.966566743503762E-6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4.9865391867358566E-6</v>
+      <c r="A20" s="6"/>
+      <c r="B20">
+        <v>4.9549499127746915E-8</v>
+      </c>
+      <c r="C20">
+        <v>2.8278250296242792E-7</v>
+      </c>
+      <c r="D20">
+        <v>3.6536499918797579E-7</v>
+      </c>
+      <c r="E20">
+        <v>2.977974997666653E-6</v>
+      </c>
+      <c r="F20">
+        <v>4.8079505990109737E-6</v>
+      </c>
+      <c r="G20">
+        <v>9.4553142162043016E-6</v>
+      </c>
+      <c r="H20">
+        <v>1.4800557365715006E-5</v>
+      </c>
+      <c r="I20">
+        <v>1.9827768495239076E-5</v>
+      </c>
+      <c r="J20">
+        <v>2.117530169163985E-5</v>
+      </c>
+      <c r="K20">
+        <v>2.8954762459644897E-5</v>
+      </c>
+      <c r="L20">
+        <v>3.2413596187167108E-5</v>
+      </c>
+      <c r="M20">
+        <v>3.6543839385838612E-5</v>
+      </c>
+      <c r="N20">
+        <v>4.1627116027210971E-5</v>
+      </c>
+      <c r="O20">
+        <v>4.4233514797114566E-5</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2.4999751780416467E-6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.4999748241881353E-6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.4999749029065328E-6</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2.499975004408572E-6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.4999813422027853E-6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.499981239594716E-6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.5000037570906276E-6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.5000549991415243E-6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.5000283426746045E-6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.500043324880457E-6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.500023400689765E-6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2.5000148361833176E-6</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.5001874783697116E-6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2.500142753698295E-6</v>
+      <c r="A21" s="6"/>
+      <c r="B21">
+        <v>5.1551499053167345E-8</v>
+      </c>
+      <c r="C21">
+        <v>2.1271250193731964E-7</v>
+      </c>
+      <c r="D21">
+        <v>5.105099989335423E-7</v>
+      </c>
+      <c r="E21">
+        <v>2.4274249982665E-6</v>
+      </c>
+      <c r="F21">
+        <v>5.1551500012664685E-6</v>
+      </c>
+      <c r="G21">
+        <v>1.0345518327190191E-5</v>
+      </c>
+      <c r="H21">
+        <v>1.6366350002486712E-5</v>
+      </c>
+      <c r="I21">
+        <v>2.4937539690852526E-5</v>
+      </c>
+      <c r="J21">
+        <v>2.6276250000950348E-5</v>
+      </c>
+      <c r="K21">
+        <v>3.4578783287691727E-5</v>
+      </c>
+      <c r="L21">
+        <v>3.4684649998863553E-5</v>
+      </c>
+      <c r="M21">
+        <v>3.9238115397778707E-5</v>
+      </c>
+      <c r="N21">
+        <v>4.9313598317943693E-5</v>
+      </c>
+      <c r="O21">
+        <v>4.3710421826562632E-5</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.001439148620459E-5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4.007701939869165E-5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.015142161131034E-5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.08452766158973E-5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4.1826706500993046E-5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4.406039778470047E-5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.6998366512746354E-5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.0981293637326116E-5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.569418624363062E-5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.212481787561066E-5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.1011762666348E-5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>8.303570837280958E-5</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.0567963134757394E-4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.4169167920419868E-4</v>
+      <c r="A22" s="6"/>
+      <c r="B22">
+        <v>4.4043999187344991E-8</v>
+      </c>
+      <c r="C22">
+        <v>2.6276250240663016E-7</v>
+      </c>
+      <c r="D22">
+        <v>5.8057999878686075E-7</v>
+      </c>
+      <c r="E22">
+        <v>3.078074997378362E-6</v>
+      </c>
+      <c r="F22">
+        <v>5.3053000015458417E-6</v>
+      </c>
+      <c r="G22">
+        <v>9.9099000021346803E-6</v>
+      </c>
+      <c r="H22">
+        <v>1.471470000204664E-5</v>
+      </c>
+      <c r="I22">
+        <v>1.9419400002174096E-5</v>
+      </c>
+      <c r="J22">
+        <v>2.2289762027743992E-5</v>
+      </c>
+      <c r="K22">
+        <v>2.7692767080398582E-5</v>
+      </c>
+      <c r="L22">
+        <v>2.9779749998961719E-5</v>
+      </c>
+      <c r="M22">
+        <v>4.1373278834940067E-5</v>
+      </c>
+      <c r="N22">
+        <v>5.0804394617858535E-5</v>
+      </c>
+      <c r="O22">
+        <v>4.9019522980178979E-5</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23">
+        <v>5.7056998881013439E-8</v>
+      </c>
+      <c r="C23">
+        <v>2.4774750226850423E-7</v>
+      </c>
+      <c r="D23">
+        <v>5.0049999893392117E-7</v>
+      </c>
+      <c r="E23">
+        <v>2.6025999982665364E-6</v>
+      </c>
+      <c r="F23">
+        <v>5.5126546919645357E-6</v>
+      </c>
+      <c r="G23">
+        <v>9.0226685529242276E-6</v>
+      </c>
+      <c r="H23">
+        <v>1.563618223740148E-5</v>
+      </c>
+      <c r="I23">
+        <v>1.8674572943587357E-5</v>
+      </c>
+      <c r="J23">
+        <v>2.8116168913714413E-5</v>
+      </c>
+      <c r="K23">
+        <v>3.1573084389268865E-5</v>
+      </c>
+      <c r="L23">
+        <v>3.2277517347227716E-5</v>
+      </c>
+      <c r="M23">
+        <v>3.3264141993124431E-5</v>
+      </c>
+      <c r="N23">
+        <v>3.8319671885523363E-5</v>
+      </c>
+      <c r="O23">
+        <v>5.5270517655116944E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24">
+        <v>4.9549499162064884E-8</v>
+      </c>
+      <c r="C24">
+        <v>2.7027000252459181E-7</v>
+      </c>
+      <c r="D24">
+        <v>5.2552499886740518E-7</v>
+      </c>
+      <c r="E24">
+        <v>2.6698236949589019E-6</v>
+      </c>
+      <c r="F24">
+        <v>4.8548500012094908E-6</v>
+      </c>
+      <c r="G24">
+        <v>9.221061613580332E-6</v>
+      </c>
+      <c r="H24">
+        <v>1.7064472808721778E-5</v>
+      </c>
+      <c r="I24">
+        <v>1.9599544761618624E-5</v>
+      </c>
+      <c r="J24">
+        <v>2.7321465182945395E-5</v>
+      </c>
+      <c r="K24">
+        <v>2.9731094127988475E-5</v>
+      </c>
+      <c r="L24">
+        <v>3.7353553608390473E-5</v>
+      </c>
+      <c r="M24">
+        <v>5.1360017165417345E-5</v>
+      </c>
+      <c r="N24">
+        <v>4.0473903513462151E-5</v>
+      </c>
+      <c r="O24">
+        <v>5.2739604868891103E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(B15,B16,B17,B18,B19,B20,B21,B22,B23,B24)</f>
+        <v>5.0800749074497801E-8</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:O25" si="0">AVERAGE(C15,C16,C17,C18,C19,C20,C21,C22,C23,C24)</f>
+        <v>2.5275250233090502E-7</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>4.9949899891817822E-7</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2.6568698678228396E-6</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>4.9769144198743646E-6</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>9.4538640844337799E-6</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1.561272848154701E-5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>2.0545247865616928E-5</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>2.5175651794681804E-5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>2.9385442935127694E-5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>3.360656340658107E-5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>3.9614900049304662E-5</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>4.6128491356516377E-5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>4.9778855132760172E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2.5056532623901905E-5</v>
+      </c>
+      <c r="C26">
+        <v>1.2479216654084433E-4</v>
+      </c>
+      <c r="D26">
+        <v>2.5073076861677505E-4</v>
+      </c>
+      <c r="E26">
+        <v>1.25910784795212E-3</v>
+      </c>
+      <c r="F26">
+        <v>2.5023998981736862E-3</v>
+      </c>
+      <c r="G26">
+        <v>5.0070217146241415E-3</v>
+      </c>
+      <c r="H26">
+        <v>7.4829504767435313E-3</v>
+      </c>
+      <c r="I26">
+        <v>9.9577264146954742E-3</v>
+      </c>
+      <c r="J26">
+        <v>1.2532175527568001E-2</v>
+      </c>
+      <c r="K26">
+        <v>1.4985720752236942E-2</v>
+      </c>
+      <c r="L26">
+        <v>1.7472689899650781E-2</v>
+      </c>
+      <c r="M26">
+        <v>1.995218188158623E-2</v>
+      </c>
+      <c r="N26">
+        <v>2.2459385812137217E-2</v>
+      </c>
+      <c r="O26">
+        <v>2.4847309316387386E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>4.0098891758349949E-4</v>
+      </c>
+      <c r="C27">
+        <v>1.998447624789072E-3</v>
+      </c>
+      <c r="D27">
+        <v>4.0187196093897527E-3</v>
+      </c>
+      <c r="E27">
+        <v>2.0335487320266531E-2</v>
+      </c>
+      <c r="F27">
+        <v>4.0819248872219785E-2</v>
+      </c>
+      <c r="G27">
+        <v>8.3621666347171511E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.12911142516882382</v>
+      </c>
+      <c r="I27">
+        <v>0.17846539340697884</v>
+      </c>
+      <c r="J27">
+        <v>0.23763335069060101</v>
+      </c>
+      <c r="K27">
+        <v>0.30307976173523182</v>
+      </c>
+      <c r="L27">
+        <v>0.38458983748828185</v>
+      </c>
+      <c r="M27">
+        <v>0.4990250168546958</v>
+      </c>
+      <c r="N27">
+        <v>0.66317142105865923</v>
+      </c>
+      <c r="O27">
+        <v>0.9220815566475552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>4.013775173081809E-4</v>
+      </c>
+      <c r="C28">
+        <v>2.000649316231467E-3</v>
+      </c>
+      <c r="D28">
+        <v>4.0238965886607329E-3</v>
+      </c>
+      <c r="E28">
+        <v>2.0369010845982759E-2</v>
+      </c>
+      <c r="F28">
+        <v>4.0926995860770435E-2</v>
+      </c>
+      <c r="G28">
+        <v>8.3859619038900185E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.12912990469225386</v>
+      </c>
+      <c r="I28">
+        <v>0.17796944735843528</v>
+      </c>
+      <c r="J28">
+        <v>0.23430960884710128</v>
+      </c>
+      <c r="K28">
+        <v>0.29498088285168966</v>
+      </c>
+      <c r="L28">
+        <v>0.36786537632392952</v>
+      </c>
+      <c r="M28">
+        <v>0.46530806371898203</v>
+      </c>
+      <c r="N28">
+        <v>0.59690500144543801</v>
+      </c>
+      <c r="O28">
+        <v>0.79643282131666648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>8.2747251701474427E-4</v>
+      </c>
+      <c r="C29">
+        <v>4.1241593775639077E-3</v>
+      </c>
+      <c r="D29">
+        <v>8.2938724916661287E-3</v>
+      </c>
+      <c r="E29">
+        <v>4.1966275837896375E-2</v>
+      </c>
+      <c r="F29">
+        <v>8.4253499481165117E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.1724975281623094</v>
+      </c>
+      <c r="H29">
+        <v>0.26574134481062994</v>
+      </c>
+      <c r="I29">
+        <v>0.3664121667248712</v>
+      </c>
+      <c r="J29">
+        <v>0.48450245653045326</v>
+      </c>
+      <c r="K29">
+        <v>0.61307609643328642</v>
+      </c>
+      <c r="L29">
+        <v>0.76996525726547049</v>
+      </c>
+      <c r="M29">
+        <v>0.98433662247242948</v>
+      </c>
+      <c r="N29">
+        <v>1.282576282219748</v>
+      </c>
+      <c r="O29">
+        <v>1.7434144268854779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>4.9468084358460496E-6</v>
+      </c>
+      <c r="C30">
+        <v>4.955357186905692E-6</v>
+      </c>
+      <c r="D30">
+        <v>4.9557522009656272E-6</v>
+      </c>
+      <c r="E30">
+        <v>4.9567651498278115E-6</v>
+      </c>
+      <c r="F30">
+        <v>4.9537037050660651E-6</v>
+      </c>
+      <c r="G30">
+        <v>4.9484536092609631E-6</v>
+      </c>
+      <c r="H30">
+        <v>4.9553571436344549E-6</v>
+      </c>
+      <c r="I30">
+        <v>4.9780794597745108E-6</v>
+      </c>
+      <c r="J30">
+        <v>4.9706953650511876E-6</v>
+      </c>
+      <c r="K30">
+        <v>4.9646479923003023E-6</v>
+      </c>
+      <c r="L30">
+        <v>4.9711181753416187E-6</v>
+      </c>
+      <c r="M30">
+        <v>4.9712340757167576E-6</v>
+      </c>
+      <c r="N30">
+        <v>5.0086689242225117E-6</v>
+      </c>
+      <c r="O30">
+        <v>4.9855252563177213E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <v>4.9456520817048628E-6</v>
+      </c>
+      <c r="C31">
+        <v>4.9519231243745364E-6</v>
+      </c>
+      <c r="D31">
+        <v>4.947368410003504E-6</v>
+      </c>
+      <c r="E31">
+        <v>4.9528301846559275E-6</v>
+      </c>
+      <c r="F31">
+        <v>4.9468085118561698E-6</v>
+      </c>
+      <c r="G31">
+        <v>4.9408412894665427E-6</v>
+      </c>
+      <c r="H31">
+        <v>4.9504950502463366E-6</v>
+      </c>
+      <c r="I31">
+        <v>4.9509803925669079E-6</v>
+      </c>
+      <c r="J31">
+        <v>4.9656703196056279E-6</v>
+      </c>
+      <c r="K31">
+        <v>4.9607778626311145E-6</v>
+      </c>
+      <c r="L31">
+        <v>4.9940060537946522E-6</v>
+      </c>
+      <c r="M31">
+        <v>4.961689004683818E-6</v>
+      </c>
+      <c r="N31">
+        <v>4.9659075262687802E-6</v>
+      </c>
+      <c r="O31">
+        <v>4.998382737434238E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32">
+        <v>4.9545453606325616E-6</v>
+      </c>
+      <c r="C32">
+        <v>4.9473684562635757E-6</v>
+      </c>
+      <c r="D32">
+        <v>4.9537036933696598E-6</v>
+      </c>
+      <c r="E32">
+        <v>4.9541284377407035E-6</v>
+      </c>
+      <c r="F32">
+        <v>4.9528301899904962E-6</v>
+      </c>
+      <c r="G32">
+        <v>4.9504950504494195E-6</v>
+      </c>
+      <c r="H32">
+        <v>4.9468085113763154E-6</v>
+      </c>
+      <c r="I32">
+        <v>4.9610640970767085E-6</v>
+      </c>
+      <c r="J32">
+        <v>4.9680163572453639E-6</v>
+      </c>
+      <c r="K32">
+        <v>4.9694400045776503E-6</v>
+      </c>
+      <c r="L32">
+        <v>4.9561723348080032E-6</v>
+      </c>
+      <c r="M32">
+        <v>4.9763410128962924E-6</v>
+      </c>
+      <c r="N32">
+        <v>4.9545454543886252E-6</v>
+      </c>
+      <c r="O32">
+        <v>4.9987214347651534E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33">
+        <v>4.9509803097015831E-6</v>
+      </c>
+      <c r="C33">
+        <v>4.9397590875170035E-6</v>
+      </c>
+      <c r="D33">
+        <v>4.9473684103400768E-6</v>
+      </c>
+      <c r="E33">
+        <v>4.9509803886471477E-6</v>
+      </c>
+      <c r="F33">
+        <v>4.9411764718506092E-6</v>
+      </c>
+      <c r="G33">
+        <v>4.9546437800134779E-6</v>
+      </c>
+      <c r="H33">
+        <v>4.9545454553262584E-6</v>
+      </c>
+      <c r="I33">
+        <v>4.9479166670040515E-6</v>
+      </c>
+      <c r="J33">
+        <v>4.9737229026623592E-6</v>
+      </c>
+      <c r="K33">
+        <v>4.9494949493638752E-6</v>
+      </c>
+      <c r="L33">
+        <v>4.9674295223808339E-6</v>
+      </c>
+      <c r="M33">
+        <v>4.9700096403604033E-6</v>
+      </c>
+      <c r="N33">
+        <v>5.0076185935105526E-6</v>
+      </c>
+      <c r="O33">
+        <v>4.9723544139453452E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34">
+        <v>4.9579830893907759E-6</v>
+      </c>
+      <c r="C34">
+        <v>4.9549549992740176E-6</v>
+      </c>
+      <c r="D34">
+        <v>4.9479166557491655E-6</v>
+      </c>
+      <c r="E34">
+        <v>4.9462365560154603E-6</v>
+      </c>
+      <c r="F34">
+        <v>4.9484536096575533E-6</v>
+      </c>
+      <c r="G34">
+        <v>4.9568349725585792E-6</v>
+      </c>
+      <c r="H34">
+        <v>4.9807870558098507E-6</v>
+      </c>
+      <c r="I34">
+        <v>4.9532710283450075E-6</v>
+      </c>
+      <c r="J34">
+        <v>4.9596595221102503E-6</v>
+      </c>
+      <c r="K34">
+        <v>4.9381859953459635E-6</v>
+      </c>
+      <c r="L34">
+        <v>4.9565456698326616E-6</v>
+      </c>
+      <c r="M34">
+        <v>4.9706125494529432E-6</v>
+      </c>
+      <c r="N34">
+        <v>4.9737081945613755E-6</v>
+      </c>
+      <c r="O34">
+        <v>4.9662444593380267E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35">
+        <v>4.9499999128618303E-6</v>
+      </c>
+      <c r="C35">
+        <v>4.956140402797693E-6</v>
+      </c>
+      <c r="D35">
+        <v>4.932432421470095E-6</v>
+      </c>
+      <c r="E35">
+        <v>4.9583333294483063E-6</v>
+      </c>
+      <c r="F35">
+        <v>4.9489795930334234E-6</v>
+      </c>
+      <c r="G35">
+        <v>4.9479166677650174E-6</v>
+      </c>
+      <c r="H35">
+        <v>4.9577953622604797E-6</v>
+      </c>
+      <c r="I35">
+        <v>4.9536014940660618E-6</v>
+      </c>
+      <c r="J35">
+        <v>4.9851068538620425E-6</v>
+      </c>
+      <c r="K35">
+        <v>4.9489795917226806E-6</v>
+      </c>
+      <c r="L35">
+        <v>4.9885522121678801E-6</v>
+      </c>
+      <c r="M35">
+        <v>4.9630915867838203E-6</v>
+      </c>
+      <c r="N35">
+        <v>4.9644853116980181E-6</v>
+      </c>
+      <c r="O35">
+        <v>5.0225041632032631E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36">
+        <v>4.9519229859724267E-6</v>
+      </c>
+      <c r="C36">
+        <v>4.9418605101252154E-6</v>
+      </c>
+      <c r="D36">
+        <v>4.9647810897717984E-6</v>
+      </c>
+      <c r="E36">
+        <v>4.948979588302514E-6</v>
+      </c>
+      <c r="F36">
+        <v>4.951923078139619E-6</v>
+      </c>
+      <c r="G36">
+        <v>4.9538014907090725E-6</v>
+      </c>
+      <c r="H36">
+        <v>4.9624322831032292E-6</v>
+      </c>
+      <c r="I36">
+        <v>4.9771451167371075E-6</v>
+      </c>
+      <c r="J36">
+        <v>4.974526539218295E-6</v>
+      </c>
+      <c r="K36">
+        <v>4.9674967199680553E-6</v>
+      </c>
+      <c r="L36">
+        <v>4.9506732439471627E-6</v>
+      </c>
+      <c r="M36">
+        <v>4.9903571459756562E-6</v>
+      </c>
+      <c r="N36">
+        <v>5.0196626901960326E-6</v>
+      </c>
+      <c r="O36">
+        <v>4.9601131486590569E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37">
+        <v>4.9438201335007685E-6</v>
+      </c>
+      <c r="C37">
+        <v>4.9528302340419989E-6</v>
+      </c>
+      <c r="D37">
+        <v>4.9572649469066044E-6</v>
+      </c>
+      <c r="E37">
+        <v>4.9596774151306151E-6</v>
+      </c>
+      <c r="F37">
+        <v>4.9532710294806517E-6</v>
+      </c>
+      <c r="G37">
+        <v>4.9500000010662739E-6</v>
+      </c>
+      <c r="H37">
+        <v>4.9494949501833652E-6</v>
+      </c>
+      <c r="I37">
+        <v>4.9635780470807907E-6</v>
+      </c>
+      <c r="J37">
+        <v>4.9688959258589705E-6</v>
+      </c>
+      <c r="K37">
+        <v>4.9468085105415653E-6</v>
+      </c>
+      <c r="L37">
+        <v>4.9431055433512794E-6</v>
+      </c>
+      <c r="M37">
+        <v>4.9903437335924331E-6</v>
+      </c>
+      <c r="N37">
+        <v>4.9568965515794474E-6</v>
+      </c>
+      <c r="O37">
+        <v>4.960357994992454E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38">
+        <v>4.9565216419244619E-6</v>
+      </c>
+      <c r="C38">
+        <v>4.9500000453247593E-6</v>
+      </c>
+      <c r="D38">
+        <v>4.9504950389602604E-6</v>
+      </c>
+      <c r="E38">
+        <v>4.9523809490824159E-6</v>
+      </c>
+      <c r="F38">
+        <v>4.9620041101627828E-6</v>
+      </c>
+      <c r="G38">
+        <v>4.9456521748791231E-6</v>
+      </c>
+      <c r="H38">
+        <v>4.9751816270598401E-6</v>
+      </c>
+      <c r="I38">
+        <v>4.9473684214049097E-6</v>
+      </c>
+      <c r="J38">
+        <v>5.0238780993713263E-6</v>
+      </c>
+      <c r="K38">
+        <v>4.9966882749491508E-6</v>
+      </c>
+      <c r="L38">
+        <v>4.9833244825033492E-6</v>
+      </c>
+      <c r="M38">
+        <v>4.9411764704334418E-6</v>
+      </c>
+      <c r="N38">
+        <v>4.9598116412532532E-6</v>
+      </c>
+      <c r="O38">
+        <v>5.0090010395818209E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39">
+        <v>4.9499999162901987E-6</v>
+      </c>
+      <c r="C39">
+        <v>4.9541284866434815E-6</v>
+      </c>
+      <c r="D39">
+        <v>4.9555295840203406E-6</v>
+      </c>
+      <c r="E39">
+        <v>4.9537037006416207E-6</v>
+      </c>
+      <c r="F39">
+        <v>4.9489795930696756E-6</v>
+      </c>
+      <c r="G39">
+        <v>4.9572838408268496E-6</v>
+      </c>
+      <c r="H39">
+        <v>4.9565217397942417E-6</v>
+      </c>
+      <c r="I39">
+        <v>4.9946045512163048E-6</v>
+      </c>
+      <c r="J39">
+        <v>4.9830395458177224E-6</v>
+      </c>
+      <c r="K39">
+        <v>4.9757946766018174E-6</v>
+      </c>
+      <c r="L39">
+        <v>5.0044611151769221E-6</v>
+      </c>
+      <c r="M39">
+        <v>4.985972954719503E-6</v>
+      </c>
+      <c r="N39">
+        <v>4.9938903003161226E-6</v>
+      </c>
+      <c r="O39">
+        <v>4.9760753291298538E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <f>AVERAGE(B30,B31,B32,B33,B34,B35,B36,B37,B38,B39)</f>
+        <v>4.9508233867825526E-6</v>
+      </c>
+      <c r="C40">
+        <f>AVERAGE(C30,C31,C32,C33,C34,C35,C36,C37,C38,C39)</f>
+        <v>4.9504322533267972E-6</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:O40" si="1">AVERAGE(D30,D31,D32,D33,D34,D35,D36,D37,D38,D39)</f>
+        <v>4.9512612451557129E-6</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>4.953401569949252E-6</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>4.9508129892307043E-6</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>4.9505922876995316E-6</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>4.9589419178794374E-6</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>4.9627609275272352E-6</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>4.9773211430803147E-6</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>4.961831457800218E-6</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>4.9715388353304353E-6</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>4.9720828174615076E-6</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>4.9805195187994719E-6</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>4.9849279977366935E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>2.4999751438452291E-6</v>
+      </c>
+      <c r="C41">
+        <v>2.4999749143591022E-6</v>
+      </c>
+      <c r="D41">
+        <v>2.4999750702776881E-6</v>
+      </c>
+      <c r="E41">
+        <v>2.5000092508009574E-6</v>
+      </c>
+      <c r="F41">
+        <v>2.4999749974254333E-6</v>
+      </c>
+      <c r="G41">
+        <v>2.4999809335440725E-6</v>
+      </c>
+      <c r="H41">
+        <v>2.5000075001581261E-6</v>
+      </c>
+      <c r="I41">
+        <v>2.5000200964106685E-6</v>
+      </c>
+      <c r="J41">
+        <v>2.5000337805968723E-6</v>
+      </c>
+      <c r="K41">
+        <v>2.5000502614853659E-6</v>
+      </c>
+      <c r="L41">
+        <v>2.5000560331197837E-6</v>
+      </c>
+      <c r="M41">
+        <v>2.5001892264853282E-6</v>
+      </c>
+      <c r="N41">
+        <v>2.5000677964189028E-6</v>
+      </c>
+      <c r="O41">
+        <v>2.5000440038763084E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>4.001907107063142E-5</v>
+      </c>
+      <c r="C42">
+        <v>4.0082731696175586E-5</v>
+      </c>
+      <c r="D42">
+        <v>4.0167372597922456E-5</v>
+      </c>
+      <c r="E42">
+        <v>4.0868458335819197E-5</v>
+      </c>
+      <c r="F42">
+        <v>4.1786838969340454E-5</v>
+      </c>
+      <c r="G42">
+        <v>4.4063696013991201E-5</v>
+      </c>
+      <c r="H42">
+        <v>4.7082181666104822E-5</v>
+      </c>
+      <c r="I42">
+        <v>5.0635484413164263E-5</v>
+      </c>
+      <c r="J42">
+        <v>5.5926016563152847E-5</v>
+      </c>
+      <c r="K42">
+        <v>6.2159329493547937E-5</v>
+      </c>
+      <c r="L42">
+        <v>7.0686027509636083E-5</v>
+      </c>
+      <c r="M42">
+        <v>8.4331635816281355E-5</v>
+      </c>
+      <c r="N42">
+        <v>1.0448064849064077E-4</v>
+      </c>
+      <c r="O42">
+        <v>1.3798784518316844E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="n">
-        <v>4.00272340635286E-5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4.0149010333990904E-5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.031623699688709E-5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.162168385823553E-5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4.334711280244024E-5</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4.701226913237886E-5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.124264792871189E-5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.662017023992435E-5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6.224501776061085E-5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.987520502913294E-5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>7.958709809982531E-5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>9.284910416087126E-5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.1625302609299373E-4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.5307332857766358E-4</v>
+      <c r="B43">
+        <v>4.0032518220200332E-5</v>
+      </c>
+      <c r="C43">
+        <v>4.0159775173303706E-5</v>
+      </c>
+      <c r="D43">
+        <v>4.0328759569711562E-5</v>
+      </c>
+      <c r="E43">
+        <v>4.1637264387876407E-5</v>
+      </c>
+      <c r="F43">
+        <v>4.3292559399617629E-5</v>
+      </c>
+      <c r="G43">
+        <v>4.699595776024332E-5</v>
+      </c>
+      <c r="H43">
+        <v>5.131182025687128E-5</v>
+      </c>
+      <c r="I43">
+        <v>5.6224753422145712E-5</v>
+      </c>
+      <c r="J43">
+        <v>6.2613281084791014E-5</v>
+      </c>
+      <c r="K43">
+        <v>6.9788631047047221E-5</v>
+      </c>
+      <c r="L43">
+        <v>7.9327724145795473E-5</v>
+      </c>
+      <c r="M43">
+        <v>9.414323138722402E-5</v>
+      </c>
+      <c r="N43">
+        <v>1.1515807948749845E-4</v>
+      </c>
+      <c r="O43">
+        <v>1.492950945287927E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.967016996185635E-8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.83607057988953E-8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.967460571282987E-7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.847172195223919E-7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.9719073503224382E-6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.9537437007605725E-6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.945584232738673E-6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7.94750488862353E-6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.959582381376142E-6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.1981894204350671E-5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.4014518641243366E-5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.6057534776193972E-5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.8111022504042568E-5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.017506254074445E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9.835084980928175E-6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.9180352899447674E-5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.837302856414932E-5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.92358609761196E-4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9.859536751612192E-4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0019768718503802856</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.002972792116369337</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.003973752444311763</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.00497979119068807</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.005990947102175336</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.007007259320621684</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.008028767388096986</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.009055511252021285</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.010087531270372225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.5748346756022565E-4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7.899484627117246E-4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0015862706885188085</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.008195869590657642</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.017104810838818034</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.037469620390701515</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.06212457932506007</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.09258497146310679</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.13117488753056644</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.18164920850153596</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.2504779584528176</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.3496092422189913</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.5017157698429743</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.7425345550686313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.5764095102778583E-4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7.907384111744363E-4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.001587856959207327</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0082040654602483</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.017121915649656858</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03750709001109222</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.06218670390438513</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0926775564345699</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.131306062418097</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.18183085771003749</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.25072843641127046</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.3499588514612103</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.5022174856128172</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.7432770896236998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B51" t="n">
-        <v>0.01</v>
+        <v>3.2499884390886337E-4</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05</v>
+        <v>0.0016300639481972065</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1</v>
+        <v>0.0032728941684045413</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5</v>
+        <v>0.016894263095106183</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
+        <v>0.035216623978336754</v>
       </c>
       <c r="G51" t="n">
-        <v>2.0</v>
+        <v>0.07696148973957555</v>
       </c>
       <c r="H51" t="n">
-        <v>3.0</v>
+        <v>0.12729596651428002</v>
       </c>
       <c r="I51" t="n">
-        <v>4.0</v>
+        <v>0.1892521753517657</v>
       </c>
       <c r="J51" t="n">
-        <v>5.0</v>
+        <v>0.26748066030411427</v>
       </c>
       <c r="K51" t="n">
-        <v>6.0</v>
+        <v>0.3694949771021575</v>
       </c>
       <c r="L51" t="n">
-        <v>7.0</v>
+        <v>0.5082416832219923</v>
       </c>
       <c r="M51" t="n">
-        <v>8.0</v>
+        <v>0.707628976137851</v>
       </c>
       <c r="N51" t="n">
-        <v>9.0</v>
+        <v>1.0130249887528209</v>
       </c>
       <c r="O51" t="n">
-        <v>10.0</v>
+        <v>1.4959395260877846</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B52" t="n">
-        <v>1.967016996185635E-8</v>
+        <v>1.967016996185635E-6</v>
       </c>
       <c r="C52" t="n">
-        <v>9.83607057988953E-8</v>
+        <v>1.967214115977906E-6</v>
       </c>
       <c r="D52" t="n">
-        <v>1.967460571282987E-7</v>
+        <v>1.9674605712829865E-6</v>
       </c>
       <c r="E52" t="n">
-        <v>9.847172195223919E-7</v>
+        <v>1.9694344390447837E-6</v>
       </c>
       <c r="F52" t="n">
         <v>1.9719073503224382E-6</v>
       </c>
       <c r="G52" t="n">
-        <v>3.9537437007605725E-6</v>
+        <v>1.9768718503802863E-6</v>
       </c>
       <c r="H52" t="n">
-        <v>5.945584232738673E-6</v>
+        <v>1.981861410912891E-6</v>
       </c>
       <c r="I52" t="n">
-        <v>7.94750488862353E-6</v>
+        <v>1.9868762221558824E-6</v>
       </c>
       <c r="J52" t="n">
-        <v>9.959582381376142E-6</v>
+        <v>1.9919164762752285E-6</v>
       </c>
       <c r="K52" t="n">
-        <v>1.1981894204350671E-5</v>
+        <v>1.9969823673917788E-6</v>
       </c>
       <c r="L52" t="n">
-        <v>1.4014518641243366E-5</v>
+        <v>2.0020740916061952E-6</v>
       </c>
       <c r="M52" t="n">
-        <v>1.6057534776193972E-5</v>
+        <v>2.0071918470242465E-6</v>
       </c>
       <c r="N52" t="n">
-        <v>1.8111022504042568E-5</v>
+        <v>2.0123358337825077E-6</v>
       </c>
       <c r="O52" t="n">
-        <v>2.017506254074445E-5</v>
+        <v>2.0175062540744446E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" t="n">
-        <v>9.835084980928175E-6</v>
+        <v>9.835084980928176E-7</v>
       </c>
       <c r="C53" t="n">
-        <v>4.9180352899447674E-5</v>
+        <v>9.836070579889536E-7</v>
       </c>
       <c r="D53" t="n">
-        <v>9.837302856414932E-5</v>
+        <v>9.837302856414933E-7</v>
       </c>
       <c r="E53" t="n">
-        <v>4.92358609761196E-4</v>
+        <v>9.847172195223919E-7</v>
       </c>
       <c r="F53" t="n">
-        <v>9.859536751612192E-4</v>
+        <v>9.859536751612191E-7</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0019768718503802856</v>
+        <v>9.884359251901427E-7</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002972792116369337</v>
+        <v>9.909307054564455E-7</v>
       </c>
       <c r="I53" t="n">
-        <v>0.003973752444311763</v>
+        <v>9.934381110779408E-7</v>
       </c>
       <c r="J53" t="n">
-        <v>0.00497979119068807</v>
+        <v>9.95958238137614E-7</v>
       </c>
       <c r="K53" t="n">
-        <v>0.005990947102175336</v>
+        <v>9.984911836958894E-7</v>
       </c>
       <c r="L53" t="n">
-        <v>0.007007259320621684</v>
+        <v>1.0010370458030976E-6</v>
       </c>
       <c r="M53" t="n">
-        <v>0.008028767388096986</v>
+        <v>1.0035959235121233E-6</v>
       </c>
       <c r="N53" t="n">
-        <v>0.009055511252021285</v>
+        <v>1.0061679168912539E-6</v>
       </c>
       <c r="O53" t="n">
-        <v>0.010087531270372225</v>
+        <v>1.0087531270372223E-6</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>1.5748346756022565E-4</v>
+        <v>1.5732614141880686E-5</v>
       </c>
       <c r="C54" t="n">
-        <v>7.899484627117246E-4</v>
+        <v>1.5783186068166328E-5</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0015862706885188085</v>
+        <v>1.5846860025162923E-5</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008195869590657642</v>
+        <v>1.6375363817497784E-5</v>
       </c>
       <c r="F54" t="n">
-        <v>0.017104810838818034</v>
+        <v>1.708772311570233E-5</v>
       </c>
       <c r="G54" t="n">
-        <v>0.037469620390701515</v>
+        <v>1.871609410124951E-5</v>
       </c>
       <c r="H54" t="n">
-        <v>0.06212457932506007</v>
+        <v>2.0687505602750605E-5</v>
       </c>
       <c r="I54" t="n">
-        <v>0.09258497146310679</v>
+        <v>2.3123119746030666E-5</v>
       </c>
       <c r="J54" t="n">
-        <v>0.13117488753056644</v>
+        <v>2.620876873737591E-5</v>
       </c>
       <c r="K54" t="n">
-        <v>0.18164920850153596</v>
+        <v>3.0244623460129196E-5</v>
       </c>
       <c r="L54" t="n">
-        <v>0.2504779584528176</v>
+        <v>3.574681867458508E-5</v>
       </c>
       <c r="M54" t="n">
-        <v>0.3496092422189913</v>
+        <v>4.365749777959432E-5</v>
       </c>
       <c r="N54" t="n">
-        <v>0.5017157698429743</v>
+        <v>5.569050614307628E-5</v>
       </c>
       <c r="O54" t="n">
-        <v>0.7425345550686313</v>
+        <v>7.417927623063249E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B55" t="n">
-        <v>1.5764095102778583E-4</v>
+        <v>3.152819020555716E-5</v>
       </c>
       <c r="C55" t="n">
-        <v>7.907384111744363E-4</v>
+        <v>3.1629536446977454E-5</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001587856959207327</v>
+        <v>3.1757139184146536E-5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0082040654602483</v>
+        <v>3.2816261840993195E-5</v>
       </c>
       <c r="F55" t="n">
-        <v>0.017121915649656858</v>
+        <v>3.424383129931371E-5</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03750709001109222</v>
+        <v>3.7507090011092227E-5</v>
       </c>
       <c r="H55" t="n">
-        <v>0.06218670390438513</v>
+        <v>4.145780260292343E-5</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0926775564345699</v>
+        <v>4.6338778217284955E-5</v>
       </c>
       <c r="J55" t="n">
-        <v>0.131306062418097</v>
+        <v>5.2522424967238804E-5</v>
       </c>
       <c r="K55" t="n">
-        <v>0.18183085771003749</v>
+        <v>6.061028590334583E-5</v>
       </c>
       <c r="L55" t="n">
-        <v>0.25072843641127046</v>
+        <v>7.163669611750583E-5</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3499588514612103</v>
+        <v>8.748971286530257E-5</v>
       </c>
       <c r="N55" t="n">
-        <v>0.5022174856128172</v>
+        <v>1.1160388569173715E-4</v>
       </c>
       <c r="O55" t="n">
-        <v>0.7432770896236998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="n">
-        <v>3.2499884390886337E-4</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.0016300639481972065</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.0032728941684045413</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.016894263095106183</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.035216623978336754</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.07696148973957555</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.12729596651428002</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.1892521753517657</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.26748066030411427</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.3694949771021575</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.5082416832219923</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.707628976137851</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.0130249887528209</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.4959395260877846</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1.967016996185635E-6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1.967214115977906E-6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.9674605712829865E-6</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1.9694344390447837E-6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1.9719073503224382E-6</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.9768718503802863E-6</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.981861410912891E-6</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.9868762221558824E-6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.9919164762752285E-6</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.9969823673917788E-6</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.0020740916061952E-6</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2.0071918470242465E-6</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.0123358337825077E-6</v>
-      </c>
-      <c r="O57" t="n">
-        <v>2.0175062540744446E-6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="n">
-        <v>9.835084980928176E-7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>9.836070579889536E-7</v>
-      </c>
-      <c r="D58" t="n">
-        <v>9.837302856414933E-7</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9.847172195223919E-7</v>
-      </c>
-      <c r="F58" t="n">
-        <v>9.859536751612191E-7</v>
-      </c>
-      <c r="G58" t="n">
-        <v>9.884359251901427E-7</v>
-      </c>
-      <c r="H58" t="n">
-        <v>9.909307054564455E-7</v>
-      </c>
-      <c r="I58" t="n">
-        <v>9.934381110779408E-7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>9.95958238137614E-7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>9.984911836958894E-7</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.0010370458030976E-6</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.0035959235121233E-6</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1.0061679168912539E-6</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.0087531270372223E-6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1.5732614141880686E-5</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1.5783186068166328E-5</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.5846860025162923E-5</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1.6375363817497784E-5</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.708772311570233E-5</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.871609410124951E-5</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2.0687505602750605E-5</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2.3123119746030666E-5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.620876873737591E-5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3.0244623460129196E-5</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.574681867458508E-5</v>
-      </c>
-      <c r="M59" t="n">
-        <v>4.365749777959432E-5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5.569050614307628E-5</v>
-      </c>
-      <c r="O59" t="n">
-        <v>7.417927623063249E-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="n">
-        <v>3.152819020555716E-5</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.1629536446977454E-5</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3.1757139184146536E-5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3.2816261840993195E-5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3.424383129931371E-5</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3.7507090011092227E-5</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4.145780260292343E-5</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4.6338778217284955E-5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5.2522424967238804E-5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>6.061028590334583E-5</v>
-      </c>
-      <c r="L60" t="n">
-        <v>7.163669611750583E-5</v>
-      </c>
-      <c r="M60" t="n">
-        <v>8.748971286530257E-5</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1.1160388569173715E-4</v>
-      </c>
-      <c r="O60" t="n">
         <v>1.4865541792473996E-4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A30:A39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10908,270 +12079,1262 @@
               <xm:sqref>O15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>B26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>O26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>O27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>O28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>O29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B10:B10</xm:f>
+              <xm:sqref>B30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B11:B11</xm:f>
+              <xm:sqref>B31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B11:B11</xm:f>
+              <xm:sqref>B32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B11:B11</xm:f>
+              <xm:sqref>B33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B11:B11</xm:f>
+              <xm:sqref>B34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B11:B11</xm:f>
+              <xm:sqref>B35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B11:B11</xm:f>
+              <xm:sqref>B36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B12:B12</xm:f>
+              <xm:sqref>B37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B12:B12</xm:f>
+              <xm:sqref>B38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B12:B12</xm:f>
+              <xm:sqref>B39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B11:B11</xm:f>
+              <xm:sqref>B40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C10:C10</xm:f>
+              <xm:sqref>C30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C11:C11</xm:f>
+              <xm:sqref>C31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C11:C11</xm:f>
+              <xm:sqref>C32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C11:C11</xm:f>
+              <xm:sqref>C33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C11:C11</xm:f>
+              <xm:sqref>C34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C11:C11</xm:f>
+              <xm:sqref>C35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C11:C11</xm:f>
+              <xm:sqref>C36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C12:C12</xm:f>
+              <xm:sqref>C37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C12:C12</xm:f>
+              <xm:sqref>C38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C12:C12</xm:f>
+              <xm:sqref>C39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D10:D10</xm:f>
+              <xm:sqref>D30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D11:D11</xm:f>
+              <xm:sqref>D31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D11:D11</xm:f>
+              <xm:sqref>D32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D11:D11</xm:f>
+              <xm:sqref>D33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D11:D11</xm:f>
+              <xm:sqref>D34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D11:D11</xm:f>
+              <xm:sqref>D35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D11:D11</xm:f>
+              <xm:sqref>D36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D12:D12</xm:f>
+              <xm:sqref>D37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D12:D12</xm:f>
+              <xm:sqref>D38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D12:D12</xm:f>
+              <xm:sqref>D39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E10:E10</xm:f>
+              <xm:sqref>E30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E11:E11</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E11:E11</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E11:E11</xm:f>
+              <xm:sqref>E33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E11:E11</xm:f>
+              <xm:sqref>E34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E11:E11</xm:f>
+              <xm:sqref>E35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E11:E11</xm:f>
+              <xm:sqref>E36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E12:E12</xm:f>
+              <xm:sqref>E37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E12:E12</xm:f>
+              <xm:sqref>E38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E12:E12</xm:f>
+              <xm:sqref>E39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F10:F10</xm:f>
+              <xm:sqref>F30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F11:F11</xm:f>
+              <xm:sqref>F31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F11:F11</xm:f>
+              <xm:sqref>F32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F11:F11</xm:f>
+              <xm:sqref>F33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F11:F11</xm:f>
+              <xm:sqref>F34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F11:F11</xm:f>
+              <xm:sqref>F35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F11:F11</xm:f>
+              <xm:sqref>F36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F12:F12</xm:f>
+              <xm:sqref>F37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F12:F12</xm:f>
+              <xm:sqref>F38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F12:F12</xm:f>
+              <xm:sqref>F39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G10:G10</xm:f>
+              <xm:sqref>G30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G11:G11</xm:f>
+              <xm:sqref>G31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G11:G11</xm:f>
+              <xm:sqref>G32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G11:G11</xm:f>
+              <xm:sqref>G33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G11:G11</xm:f>
+              <xm:sqref>G34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G11:G11</xm:f>
+              <xm:sqref>G35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G11:G11</xm:f>
+              <xm:sqref>G36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G12:G12</xm:f>
+              <xm:sqref>G37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G12:G12</xm:f>
+              <xm:sqref>G38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G12:G12</xm:f>
+              <xm:sqref>G39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H10:H10</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H11:H11</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H11:H11</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H11:H11</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H11:H11</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H11:H11</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H11:H11</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H12:H12</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H12:H12</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H12:H12</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I10:I10</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I11:I11</xm:f>
+              <xm:sqref>I31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I11:I11</xm:f>
+              <xm:sqref>I32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I11:I11</xm:f>
+              <xm:sqref>I33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I11:I11</xm:f>
+              <xm:sqref>I34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I11:I11</xm:f>
+              <xm:sqref>I35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I11:I11</xm:f>
+              <xm:sqref>I36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I12:I12</xm:f>
+              <xm:sqref>I37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I12:I12</xm:f>
+              <xm:sqref>I38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I12:I12</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J10:J10</xm:f>
+              <xm:sqref>J30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J11:J11</xm:f>
+              <xm:sqref>J31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J11:J11</xm:f>
+              <xm:sqref>J32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J11:J11</xm:f>
+              <xm:sqref>J33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J11:J11</xm:f>
+              <xm:sqref>J34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J11:J11</xm:f>
+              <xm:sqref>J35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J11:J11</xm:f>
+              <xm:sqref>J36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J12:J12</xm:f>
+              <xm:sqref>J37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J12:J12</xm:f>
+              <xm:sqref>J38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J12:J12</xm:f>
+              <xm:sqref>J39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K10:K10</xm:f>
+              <xm:sqref>K30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K11:K11</xm:f>
+              <xm:sqref>K31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K11:K11</xm:f>
+              <xm:sqref>K32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K11:K11</xm:f>
+              <xm:sqref>K33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K11:K11</xm:f>
+              <xm:sqref>K34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K11:K11</xm:f>
+              <xm:sqref>K35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K11:K11</xm:f>
+              <xm:sqref>K36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K12:K12</xm:f>
+              <xm:sqref>K37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K12:K12</xm:f>
+              <xm:sqref>K38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K12:K12</xm:f>
+              <xm:sqref>K39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L10:L10</xm:f>
+              <xm:sqref>L30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L11:L11</xm:f>
+              <xm:sqref>L31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L11:L11</xm:f>
+              <xm:sqref>L32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L11:L11</xm:f>
+              <xm:sqref>L33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L11:L11</xm:f>
+              <xm:sqref>L34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L11:L11</xm:f>
+              <xm:sqref>L35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L11:L11</xm:f>
+              <xm:sqref>L36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L12:L12</xm:f>
+              <xm:sqref>L37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L12:L12</xm:f>
+              <xm:sqref>L38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L12:L12</xm:f>
+              <xm:sqref>L39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M10:M10</xm:f>
+              <xm:sqref>M30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M11:M11</xm:f>
+              <xm:sqref>M31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M11:M11</xm:f>
+              <xm:sqref>M32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M11:M11</xm:f>
+              <xm:sqref>M33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M11:M11</xm:f>
+              <xm:sqref>M34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M11:M11</xm:f>
+              <xm:sqref>M35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M11:M11</xm:f>
+              <xm:sqref>M36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M12:M12</xm:f>
+              <xm:sqref>M37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M12:M12</xm:f>
+              <xm:sqref>M38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M12:M12</xm:f>
+              <xm:sqref>M39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N10:N10</xm:f>
+              <xm:sqref>N30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N11:N11</xm:f>
+              <xm:sqref>N31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N11:N11</xm:f>
+              <xm:sqref>N32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N11:N11</xm:f>
+              <xm:sqref>N33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N11:N11</xm:f>
+              <xm:sqref>N34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N11:N11</xm:f>
+              <xm:sqref>N35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N11:N11</xm:f>
+              <xm:sqref>N36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N12:N12</xm:f>
+              <xm:sqref>N37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N12:N12</xm:f>
+              <xm:sqref>N38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N12:N12</xm:f>
+              <xm:sqref>N39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O10:O10</xm:f>
+              <xm:sqref>O30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O11:O11</xm:f>
+              <xm:sqref>O31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O11:O11</xm:f>
+              <xm:sqref>O32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O11:O11</xm:f>
+              <xm:sqref>O33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O11:O11</xm:f>
+              <xm:sqref>O34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O11:O11</xm:f>
+              <xm:sqref>O35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O11:O11</xm:f>
+              <xm:sqref>O36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O12:O12</xm:f>
+              <xm:sqref>O37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O12:O12</xm:f>
+              <xm:sqref>O38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O12:O12</xm:f>
+              <xm:sqref>O39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>O41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!C11:C11</xm:f>
+              <xm:sqref>C40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D11:D11</xm:f>
+              <xm:sqref>D40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!E11:E11</xm:f>
+              <xm:sqref>E40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!F11:F11</xm:f>
+              <xm:sqref>F40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!G11:G11</xm:f>
+              <xm:sqref>G40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!H11:H11</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!I11:I11</xm:f>
+              <xm:sqref>I40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!J11:J11</xm:f>
+              <xm:sqref>J40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!K11:K11</xm:f>
+              <xm:sqref>K40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!L11:L11</xm:f>
+              <xm:sqref>L40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!M11:M11</xm:f>
+              <xm:sqref>M40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!N11:N11</xm:f>
+              <xm:sqref>N40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!O11:O11</xm:f>
+              <xm:sqref>O40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
               <xm:sqref>B16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>B17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>C16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>C17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>D16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>D17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>E16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>E17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>F16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>F17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>G16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>G17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>H16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>I16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>J16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>J17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>K16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>K17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>L16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>L17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>M16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>M17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>N16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:sqref>N17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:sqref>O16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:sqref>B17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>C17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>D17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>E17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>F17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>G17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>I17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>J17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>K17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>L17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>M17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>N17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
               <xm:sqref>O17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:sqref>B18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>C18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>D18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>E18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>F18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>G18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>I18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>J18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>K18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>L18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>M18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>N18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
               <xm:sqref>O18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:sqref>B19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>C19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>D19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>E19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>F19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>G19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>I19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>J19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>K19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>L19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>M19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>N19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
               <xm:sqref>O19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Лист1!B10:B10</xm:f>
-              <xm:sqref>B20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!C10:C10</xm:f>
-              <xm:sqref>C20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D10:D10</xm:f>
-              <xm:sqref>D20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!E10:E10</xm:f>
-              <xm:sqref>E20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!F10:F10</xm:f>
-              <xm:sqref>F20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!G10:G10</xm:f>
-              <xm:sqref>G20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!H10:H10</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!I10:I10</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!J10:J10</xm:f>
-              <xm:sqref>J20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!K10:K10</xm:f>
-              <xm:sqref>K20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!L10:L10</xm:f>
-              <xm:sqref>L20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!M10:M10</xm:f>
-              <xm:sqref>M20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!N10:N10</xm:f>
-              <xm:sqref>N20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!O10:O10</xm:f>
               <xm:sqref>O20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:sqref>B21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>C21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>D21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>E21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>F21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>G21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>J21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>K21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>L21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>M21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>N21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
               <xm:sqref>O21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>O22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>O23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>O24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>C25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>D25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>E25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>F25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>G25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>I25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>J25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>K25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>L25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>M25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>N25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>O25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
